--- a/dashboard/Projects.xlsx
+++ b/dashboard/Projects.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -441,73 +441,10 @@
     <t>erp_relevant_prop</t>
   </si>
   <si>
-    <t>Outcome_learningOpportunities</t>
-  </si>
-  <si>
-    <t>Outcome_QltyEducation</t>
-  </si>
-  <si>
-    <t>Outcome_Systems</t>
-  </si>
-  <si>
-    <t>Outcome_other</t>
-  </si>
-  <si>
     <t>sum_outcomes_raw</t>
   </si>
   <si>
-    <t>Programme_ECD</t>
-  </si>
-  <si>
-    <t>Programme_Primary</t>
-  </si>
-  <si>
-    <t>Programme_secondary</t>
-  </si>
-  <si>
-    <t>Programme_AcceleratedEducation</t>
-  </si>
-  <si>
-    <t>Programme_Skills</t>
-  </si>
-  <si>
-    <t>Programme_Systems</t>
-  </si>
-  <si>
-    <t>Programme_other</t>
-  </si>
-  <si>
     <t>sum_programme_raw</t>
-  </si>
-  <si>
-    <t>Activity_Infrastructure</t>
-  </si>
-  <si>
-    <t>Activity_Materials</t>
-  </si>
-  <si>
-    <t>Activity_Salary</t>
-  </si>
-  <si>
-    <t>Activity_training</t>
-  </si>
-  <si>
-    <t>Activity_Training_Children</t>
-  </si>
-  <si>
-    <t>Activity_community</t>
-  </si>
-  <si>
-    <t>Activity_Strengthening_District</t>
-  </si>
-  <si>
-    <t>Activity_Strengthening_National</t>
-  </si>
-  <si>
-    <t>Activity_piloting</t>
-  </si>
-  <si>
-    <t>Activity_other</t>
   </si>
   <si>
     <t>sum_activity_raw</t>
@@ -577,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT65"/>
+  <dimension ref="A1:Y65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -656,69 +593,6 @@
       <c r="Y1" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -781,75 +655,16 @@
         <v>0.0099999997764825821</v>
       </c>
       <c r="V2" s="0">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W2" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="X2" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>0.44999998807907104</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AF2" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="0">
-        <v>0.44999998807907104</v>
-      </c>
-      <c r="AJ2" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AK2" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AL2" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>5.9604644775390625e-008</v>
-      </c>
-      <c r="AS2" s="0">
         <v>0.99999994039535522</v>
       </c>
-      <c r="AT2" t="s">
-        <v>167</v>
+      <c r="Y2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -917,49 +732,16 @@
         <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>0.40000000596046448</v>
+        <v>1</v>
       </c>
       <c r="W3" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X3" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="0"/>
-      <c r="AB3" s="0"/>
-      <c r="AC3" s="0"/>
-      <c r="AD3" s="0"/>
-      <c r="AE3" s="0">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="0"/>
-      <c r="AG3" s="0"/>
-      <c r="AH3" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="0"/>
-      <c r="AJ3" s="0"/>
-      <c r="AK3" s="0"/>
-      <c r="AL3" s="0"/>
-      <c r="AM3" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AN3" s="0"/>
-      <c r="AO3" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP3" s="0"/>
-      <c r="AQ3" s="0"/>
-      <c r="AR3" s="0"/>
-      <c r="AS3" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>167</v>
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4">
@@ -1015,61 +797,16 @@
       </c>
       <c r="U4" s="0"/>
       <c r="V4" s="0">
-        <v>0.20999999344348907</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="W4" s="0">
-        <v>0.029999999329447746</v>
+        <v>1</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="0">
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="Z4" s="0">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="AM4" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AN4" s="0">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="AO4" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="0">
-        <v>0.92000001668930054</v>
-      </c>
-      <c r="AS4" s="0">
         <v>0.079999998211860657</v>
       </c>
-      <c r="AT4" t="s">
-        <v>168</v>
+      <c r="Y4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5">
@@ -1131,55 +868,16 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="W5" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="0"/>
-      <c r="AC5" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="0"/>
-      <c r="AE5" s="0"/>
-      <c r="AF5" s="0"/>
-      <c r="AG5" s="0"/>
-      <c r="AH5" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AJ5" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AK5" s="0">
-        <v>0.36000001430511475</v>
-      </c>
-      <c r="AL5" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AM5" s="0">
-        <v>0.33000001311302185</v>
-      </c>
-      <c r="AN5" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO5" s="0"/>
-      <c r="AP5" s="0"/>
-      <c r="AQ5" s="0"/>
-      <c r="AR5" s="0"/>
-      <c r="AS5" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="X5" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6">
@@ -1241,59 +939,16 @@
         <v>0</v>
       </c>
       <c r="V6" s="0">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="W6" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="0"/>
-      <c r="AC6" s="0">
-        <v>0.94999998807907104</v>
-      </c>
-      <c r="AD6" s="0"/>
-      <c r="AE6" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AF6" s="0"/>
-      <c r="AG6" s="0"/>
-      <c r="AH6" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AJ6" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AK6" s="0">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="AL6" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AM6" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AN6" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AO6" s="0"/>
-      <c r="AP6" s="0"/>
-      <c r="AQ6" s="0"/>
-      <c r="AR6" s="0">
-        <v>0.069999992847442627</v>
-      </c>
-      <c r="AS6" s="0">
+        <v>1</v>
+      </c>
+      <c r="X6" s="0">
         <v>0.93000000715255737</v>
       </c>
-      <c r="AT6" t="s">
-        <v>168</v>
+      <c r="Y6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
@@ -1357,43 +1012,14 @@
       <c r="V7" s="0">
         <v>0.89999997615814209</v>
       </c>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0">
-        <v>0.10000002384185791</v>
-      </c>
-      <c r="Z7" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="0"/>
-      <c r="AC7" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="0"/>
-      <c r="AE7" s="0"/>
-      <c r="AF7" s="0"/>
-      <c r="AG7" s="0"/>
-      <c r="AH7" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="0"/>
-      <c r="AJ7" s="0"/>
-      <c r="AK7" s="0"/>
-      <c r="AL7" s="0"/>
-      <c r="AM7" s="0">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="0"/>
-      <c r="AO7" s="0"/>
-      <c r="AP7" s="0"/>
-      <c r="AQ7" s="0"/>
-      <c r="AR7" s="0"/>
-      <c r="AS7" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>169</v>
+      <c r="W7" s="0">
+        <v>1</v>
+      </c>
+      <c r="X7" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -1457,47 +1083,14 @@
       <c r="V8" s="0">
         <v>0.54000002145767212</v>
       </c>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0">
-        <v>0.45999997854232788</v>
-      </c>
-      <c r="Z8" s="0">
-        <v>0.54000002145767212</v>
-      </c>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="0"/>
-      <c r="AE8" s="0"/>
-      <c r="AF8" s="0"/>
-      <c r="AG8" s="0"/>
-      <c r="AH8" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="0"/>
-      <c r="AJ8" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AK8" s="0"/>
-      <c r="AL8" s="0"/>
-      <c r="AM8" s="0">
-        <v>0.54000002145767212</v>
-      </c>
-      <c r="AN8" s="0"/>
-      <c r="AO8" s="0"/>
-      <c r="AP8" s="0"/>
-      <c r="AQ8" s="0"/>
-      <c r="AR8" s="0">
-        <v>0.37999999523162842</v>
-      </c>
-      <c r="AS8" s="0">
+      <c r="W8" s="0">
+        <v>1</v>
+      </c>
+      <c r="X8" s="0">
         <v>0.62000000476837158</v>
       </c>
-      <c r="AT8" t="s">
-        <v>169</v>
+      <c r="Y8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9">
@@ -1559,57 +1152,16 @@
         <v>0</v>
       </c>
       <c r="V9" s="0">
-        <v>0.56000000238418579</v>
+        <v>0.76999998092651367</v>
       </c>
       <c r="W9" s="0">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0">
-        <v>0.23000001907348633</v>
-      </c>
-      <c r="Z9" s="0">
-        <v>0.76999998092651367</v>
-      </c>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="0"/>
-      <c r="AC9" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="0"/>
-      <c r="AE9" s="0"/>
-      <c r="AF9" s="0"/>
-      <c r="AG9" s="0"/>
-      <c r="AH9" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="0">
-        <v>0.46000000834465027</v>
-      </c>
-      <c r="AJ9" s="0">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="AK9" s="0"/>
-      <c r="AL9" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AM9" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AN9" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO9" s="0"/>
-      <c r="AP9" s="0"/>
-      <c r="AQ9" s="0"/>
-      <c r="AR9" s="0">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="AS9" s="0">
+        <v>1</v>
+      </c>
+      <c r="X9" s="0">
         <v>0.81999999284744263</v>
       </c>
-      <c r="AT9" t="s">
-        <v>170</v>
+      <c r="Y9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10">
@@ -1673,49 +1225,16 @@
         <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>0.87999999523162842</v>
+        <v>1</v>
       </c>
       <c r="W10" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="0"/>
-      <c r="AC10" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="0"/>
-      <c r="AE10" s="0"/>
-      <c r="AF10" s="0"/>
-      <c r="AG10" s="0"/>
-      <c r="AH10" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="0">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="AJ10" s="0"/>
-      <c r="AK10" s="0"/>
-      <c r="AL10" s="0"/>
-      <c r="AM10" s="0">
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="AN10" s="0"/>
-      <c r="AO10" s="0"/>
-      <c r="AP10" s="0"/>
-      <c r="AQ10" s="0"/>
-      <c r="AR10" s="0">
-        <v>0.030000030994415283</v>
-      </c>
-      <c r="AS10" s="0">
+        <v>1</v>
+      </c>
+      <c r="X10" s="0">
         <v>0.96999996900558472</v>
       </c>
-      <c r="AT10" t="s">
-        <v>169</v>
+      <c r="Y10" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11">
@@ -1779,55 +1298,16 @@
         <v>0.30000001192092896</v>
       </c>
       <c r="V11" s="0">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="W11" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AB11" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AC11" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AD11" s="0"/>
-      <c r="AE11" s="0"/>
-      <c r="AF11" s="0"/>
-      <c r="AG11" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AH11" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="0"/>
-      <c r="AJ11" s="0">
-        <v>0.62999999523162842</v>
-      </c>
-      <c r="AK11" s="0"/>
-      <c r="AL11" s="0"/>
-      <c r="AM11" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AN11" s="0"/>
-      <c r="AO11" s="0"/>
-      <c r="AP11" s="0"/>
-      <c r="AQ11" s="0"/>
-      <c r="AR11" s="0">
-        <v>0.26999998092651367</v>
-      </c>
-      <c r="AS11" s="0">
+        <v>1</v>
+      </c>
+      <c r="X11" s="0">
         <v>0.73000001907348633</v>
       </c>
-      <c r="AT11" t="s">
-        <v>170</v>
+      <c r="Y11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -1893,53 +1373,14 @@
       <c r="V12" s="0">
         <v>0.89999997615814209</v>
       </c>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0">
-        <v>0.10000002384185791</v>
-      </c>
-      <c r="Z12" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AA12" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AB12" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AC12" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AD12" s="0"/>
-      <c r="AE12" s="0"/>
-      <c r="AF12" s="0"/>
-      <c r="AG12" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AH12" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="0"/>
-      <c r="AJ12" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AK12" s="0"/>
-      <c r="AL12" s="0"/>
-      <c r="AM12" s="0">
-        <v>0.81999999284744263</v>
-      </c>
-      <c r="AN12" s="0"/>
-      <c r="AO12" s="0"/>
-      <c r="AP12" s="0"/>
-      <c r="AQ12" s="0"/>
-      <c r="AR12" s="0">
-        <v>0.060000002384185791</v>
-      </c>
-      <c r="AS12" s="0">
+      <c r="W12" s="0">
+        <v>1</v>
+      </c>
+      <c r="X12" s="0">
         <v>0.93999999761581421</v>
       </c>
-      <c r="AT12" t="s">
-        <v>169</v>
+      <c r="Y12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13">
@@ -2003,59 +1444,16 @@
         <v>0.20000000298023224</v>
       </c>
       <c r="V13" s="0">
-        <v>0.69999998807907104</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="W13" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0">
-        <v>0.10000002384185791</v>
-      </c>
-      <c r="Z13" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AA13" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AB13" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AC13" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AD13" s="0"/>
-      <c r="AE13" s="0"/>
-      <c r="AF13" s="0"/>
-      <c r="AG13" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AH13" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AJ13" s="0">
-        <v>0.2199999988079071</v>
-      </c>
-      <c r="AK13" s="0"/>
-      <c r="AL13" s="0"/>
-      <c r="AM13" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AN13" s="0"/>
-      <c r="AO13" s="0"/>
-      <c r="AP13" s="0"/>
-      <c r="AQ13" s="0"/>
-      <c r="AR13" s="0">
-        <v>0.58000004291534424</v>
-      </c>
-      <c r="AS13" s="0">
+        <v>1</v>
+      </c>
+      <c r="X13" s="0">
         <v>0.41999998688697815</v>
       </c>
-      <c r="AT13" t="s">
-        <v>170</v>
+      <c r="Y13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2119,57 +1517,16 @@
         <v>0.20000000298023224</v>
       </c>
       <c r="V14" s="0">
-        <v>0.89999997615814209</v>
+        <v>1</v>
       </c>
       <c r="W14" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AB14" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AC14" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AD14" s="0"/>
-      <c r="AE14" s="0"/>
-      <c r="AF14" s="0"/>
-      <c r="AG14" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AH14" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="0">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="AJ14" s="0">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="AK14" s="0"/>
-      <c r="AL14" s="0"/>
-      <c r="AM14" s="0">
-        <v>0.56999999284744263</v>
-      </c>
-      <c r="AN14" s="0"/>
-      <c r="AO14" s="0"/>
-      <c r="AP14" s="0"/>
-      <c r="AQ14" s="0"/>
-      <c r="AR14" s="0">
-        <v>0.11000001430511475</v>
-      </c>
-      <c r="AS14" s="0">
+        <v>1</v>
+      </c>
+      <c r="X14" s="0">
         <v>0.88999998569488525</v>
       </c>
-      <c r="AT14" t="s">
-        <v>169</v>
+      <c r="Y14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2237,59 +1594,16 @@
         <v>0.40999999642372131</v>
       </c>
       <c r="V15" s="0">
-        <v>0.64999997615814209</v>
+        <v>1</v>
       </c>
       <c r="W15" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X15" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="AC15" s="0"/>
-      <c r="AD15" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AE15" s="0"/>
-      <c r="AF15" s="0"/>
-      <c r="AG15" s="0"/>
-      <c r="AH15" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI15" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AJ15" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AK15" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AL15" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AM15" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AN15" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AO15" s="0"/>
-      <c r="AP15" s="0"/>
-      <c r="AQ15" s="0"/>
-      <c r="AR15" s="0"/>
-      <c r="AS15" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16">
@@ -2353,57 +1667,16 @@
         <v>1</v>
       </c>
       <c r="V16" s="0">
-        <v>0.60000002384185791</v>
+        <v>1</v>
       </c>
       <c r="W16" s="0">
-        <v>0.30000001192092896</v>
+        <v>1</v>
       </c>
       <c r="X16" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AC16" s="0"/>
-      <c r="AD16" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AE16" s="0"/>
-      <c r="AF16" s="0"/>
-      <c r="AG16" s="0"/>
-      <c r="AH16" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AJ16" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AK16" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AL16" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AM16" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="AN16" s="0"/>
-      <c r="AO16" s="0"/>
-      <c r="AP16" s="0"/>
-      <c r="AQ16" s="0"/>
-      <c r="AR16" s="0"/>
-      <c r="AS16" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -2461,57 +1734,16 @@
       </c>
       <c r="U17" s="0"/>
       <c r="V17" s="0">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="W17" s="0">
-        <v>0.15000000596046448</v>
+        <v>1</v>
       </c>
       <c r="X17" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="AC17" s="0"/>
-      <c r="AD17" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AE17" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AF17" s="0"/>
-      <c r="AG17" s="0"/>
-      <c r="AH17" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AJ17" s="0">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="AK17" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AL17" s="0"/>
-      <c r="AM17" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AN17" s="0"/>
-      <c r="AO17" s="0"/>
-      <c r="AP17" s="0"/>
-      <c r="AQ17" s="0"/>
-      <c r="AR17" s="0"/>
-      <c r="AS17" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2578,50 +1810,17 @@
       <c r="U18" s="0">
         <v>0</v>
       </c>
-      <c r="V18" s="0"/>
+      <c r="V18" s="0">
+        <v>1</v>
+      </c>
       <c r="W18" s="0">
         <v>1</v>
       </c>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="0"/>
-      <c r="AD18" s="0"/>
-      <c r="AE18" s="0"/>
-      <c r="AF18" s="0"/>
-      <c r="AG18" s="0"/>
-      <c r="AH18" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="0"/>
-      <c r="AJ18" s="0"/>
-      <c r="AK18" s="0"/>
-      <c r="AL18" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="AM18" s="0"/>
-      <c r="AN18" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO18" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AP18" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AQ18" s="0"/>
-      <c r="AR18" s="0"/>
-      <c r="AS18" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>170</v>
+      <c r="X18" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="19">
@@ -2685,79 +1884,16 @@
         <v>0.059999998658895493</v>
       </c>
       <c r="V19" s="0">
-        <v>0.56999999284744263</v>
+        <v>0.99999994039535522</v>
       </c>
       <c r="W19" s="0">
-        <v>0.20999999344348907</v>
+        <v>1</v>
       </c>
       <c r="X19" s="0">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="Y19" s="0">
-        <v>0.030000058934092522</v>
-      </c>
-      <c r="Z19" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="AA19" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AB19" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC19" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AD19" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AF19" s="0">
-        <v>0.070000000298023224</v>
-      </c>
-      <c r="AG19" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AH19" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="0">
-        <v>0.57999998331069946</v>
-      </c>
-      <c r="AJ19" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AK19" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AM19" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="AN19" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AO19" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="0">
-        <v>0.14000000059604645</v>
-      </c>
-      <c r="AS19" s="0">
         <v>0.93999999761581421</v>
       </c>
-      <c r="AT19" t="s">
-        <v>169</v>
+      <c r="Y19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20">
@@ -2819,75 +1955,16 @@
       </c>
       <c r="U20" s="0"/>
       <c r="V20" s="0">
-        <v>0.38999998569488525</v>
+        <v>1</v>
       </c>
       <c r="W20" s="0">
-        <v>0.23000000417232513</v>
+        <v>1</v>
       </c>
       <c r="X20" s="0">
-        <v>0.14000000059604645</v>
-      </c>
-      <c r="Y20" s="0">
-        <v>0.23999999463558197</v>
-      </c>
-      <c r="Z20" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="0"/>
-      <c r="AG20" s="0"/>
-      <c r="AH20" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="0">
-        <v>0.23000000417232513</v>
-      </c>
-      <c r="AJ20" s="0">
-        <v>0.15999999642372131</v>
-      </c>
-      <c r="AK20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AM20" s="0">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="AN20" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AO20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="0">
-        <v>0.33000001311302185</v>
-      </c>
-      <c r="AS20" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21">
@@ -2955,73 +2032,16 @@
         <v>0.93000000715255737</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="0">
-        <v>0.89999997615814209</v>
+        <v>1</v>
       </c>
       <c r="X21" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="Y21" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AC21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AG21" s="0"/>
-      <c r="AH21" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AK21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AM21" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="0"/>
-      <c r="AO21" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP21" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AQ21" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AR21" s="0"/>
-      <c r="AS21" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>167</v>
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="22">
@@ -3089,71 +2109,16 @@
         <v>0</v>
       </c>
       <c r="V22" s="0">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="W22" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X22" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Y22" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="0"/>
-      <c r="AB22" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC22" s="0"/>
-      <c r="AD22" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AE22" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AG22" s="0"/>
-      <c r="AH22" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="AJ22" s="0">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="AK22" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AL22" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AM22" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AN22" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO22" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AP22" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="0"/>
-      <c r="AR22" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AS22" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23">
@@ -3221,79 +2186,16 @@
         <v>0.40000000596046448</v>
       </c>
       <c r="V23" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="W23" s="0">
-        <v>0.63999998569488525</v>
+        <v>1</v>
       </c>
       <c r="X23" s="0">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="Y23" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="0">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="AE23" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="0">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="AG23" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AJ23" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AK23" s="0">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="AL23" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AM23" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AN23" s="0">
-        <v>0.070000000298023224</v>
-      </c>
-      <c r="AO23" s="0">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="AP23" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AQ23" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="0">
-        <v>5.9604644775390625e-008</v>
-      </c>
-      <c r="AS23" s="0">
         <v>0.99999994039535522</v>
       </c>
-      <c r="AT23" t="s">
-        <v>170</v>
+      <c r="Y23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="24">
@@ -3361,79 +2263,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.34000000357627869</v>
+        <v>1</v>
       </c>
       <c r="W24" s="0">
-        <v>0.64999997615814209</v>
+        <v>1</v>
       </c>
       <c r="X24" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="Y24" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="AC24" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="0">
-        <v>0.28999999165534973</v>
-      </c>
-      <c r="AE24" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AG24" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI24" s="0">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="AJ24" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AK24" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AL24" s="0">
-        <v>0.11999999731779099</v>
-      </c>
-      <c r="AM24" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AN24" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AO24" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AP24" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AQ24" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25">
@@ -3499,79 +2338,16 @@
         <v>0</v>
       </c>
       <c r="V25" s="0">
-        <v>0.38999998569488525</v>
+        <v>1</v>
       </c>
       <c r="W25" s="0">
-        <v>0.60000002384185791</v>
+        <v>1</v>
       </c>
       <c r="X25" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="Y25" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="0">
-        <v>0.15999999642372131</v>
-      </c>
-      <c r="AE25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AG25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="0">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="AJ25" s="0">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="AK25" s="0">
-        <v>0.27000001072883606</v>
-      </c>
-      <c r="AL25" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AM25" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AN25" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AO25" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AP25" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AQ25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="0">
-        <v>5.9604644775390625e-008</v>
-      </c>
-      <c r="AS25" s="0">
         <v>0.99999994039535522</v>
       </c>
-      <c r="AT25" t="s">
-        <v>168</v>
+      <c r="Y25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26">
@@ -3635,79 +2411,16 @@
         <v>0</v>
       </c>
       <c r="V26" s="0">
-        <v>0.64999997615814209</v>
+        <v>1</v>
       </c>
       <c r="W26" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Y26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Z26" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AF26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AG26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AH26" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AJ26" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AK26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AL26" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AM26" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AN26" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AO26" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AR26" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -3773,61 +2486,16 @@
         <v>0</v>
       </c>
       <c r="V27" s="0">
-        <v>0.10000000149011612</v>
+        <v>0.64999997615814209</v>
       </c>
       <c r="W27" s="0">
-        <v>0.10000000149011612</v>
+        <v>1</v>
       </c>
       <c r="X27" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Y27" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="Z27" s="0">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="AA27" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AF27" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AQ27" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>171</v>
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -3894,76 +2562,13 @@
         <v>1</v>
       </c>
       <c r="W28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="0">
-        <v>0.68999999761581421</v>
-      </c>
-      <c r="AJ28" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AK28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="0">
-        <v>0.28999999165534973</v>
-      </c>
-      <c r="AN28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29">
@@ -4027,67 +2632,16 @@
         <v>0.56000000238418579</v>
       </c>
       <c r="V29" s="0">
-        <v>0.49000000953674316</v>
+        <v>1</v>
       </c>
       <c r="W29" s="0">
-        <v>0.2199999988079071</v>
+        <v>1</v>
       </c>
       <c r="X29" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="0">
-        <v>0.28999999165534973</v>
-      </c>
-      <c r="Z29" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="0">
-        <v>0.40999999642372131</v>
-      </c>
-      <c r="AK29" s="0"/>
-      <c r="AL29" s="0"/>
-      <c r="AM29" s="0">
-        <v>0.27000001072883606</v>
-      </c>
-      <c r="AN29" s="0">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="AO29" s="0"/>
-      <c r="AP29" s="0"/>
-      <c r="AQ29" s="0"/>
-      <c r="AR29" s="0"/>
-      <c r="AS29" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="30">
@@ -4154,74 +2708,13 @@
         <v>1</v>
       </c>
       <c r="W30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="0">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="0"/>
-      <c r="AP30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR30" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -4284,76 +2777,13 @@
         <v>0</v>
       </c>
       <c r="W31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="0">
         <v>0</v>
       </c>
-      <c r="Y31" s="0">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR31" s="0">
-        <v>1</v>
-      </c>
-      <c r="AS31" s="0">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>169</v>
+      <c r="Y31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32">
@@ -4419,47 +2849,14 @@
       <c r="V32" s="0">
         <v>1</v>
       </c>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0"/>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AB32" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AC32" s="0"/>
-      <c r="AD32" s="0"/>
-      <c r="AE32" s="0"/>
-      <c r="AF32" s="0"/>
-      <c r="AG32" s="0"/>
-      <c r="AH32" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="0"/>
-      <c r="AJ32" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="AK32" s="0"/>
-      <c r="AL32" s="0"/>
-      <c r="AM32" s="0"/>
-      <c r="AN32" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AO32" s="0"/>
-      <c r="AP32" s="0"/>
-      <c r="AQ32" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AR32" s="0"/>
-      <c r="AS32" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>172</v>
+      <c r="W32" s="0">
+        <v>1</v>
+      </c>
+      <c r="X32" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33">
@@ -4525,41 +2922,14 @@
       <c r="V33" s="0">
         <v>1</v>
       </c>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="0"/>
-      <c r="AB33" s="0"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
-      <c r="AM33" s="0">
-        <v>1</v>
-      </c>
-      <c r="AN33" s="0"/>
-      <c r="AO33" s="0"/>
-      <c r="AP33" s="0"/>
-      <c r="AQ33" s="0"/>
-      <c r="AR33" s="0"/>
-      <c r="AS33" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>170</v>
+      <c r="W33" s="0">
+        <v>1</v>
+      </c>
+      <c r="X33" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="34">
@@ -4623,41 +2993,14 @@
       <c r="V34" s="0">
         <v>1</v>
       </c>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0"/>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="0"/>
-      <c r="AB34" s="0"/>
-      <c r="AC34" s="0"/>
-      <c r="AD34" s="0"/>
-      <c r="AE34" s="0">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="0"/>
-      <c r="AG34" s="0"/>
-      <c r="AH34" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="0"/>
-      <c r="AJ34" s="0"/>
-      <c r="AK34" s="0"/>
-      <c r="AL34" s="0"/>
-      <c r="AM34" s="0">
-        <v>1</v>
-      </c>
-      <c r="AN34" s="0"/>
-      <c r="AO34" s="0"/>
-      <c r="AP34" s="0"/>
-      <c r="AQ34" s="0"/>
-      <c r="AR34" s="0"/>
-      <c r="AS34" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>170</v>
+      <c r="W34" s="0">
+        <v>1</v>
+      </c>
+      <c r="X34" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="35">
@@ -4721,79 +3064,16 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0.87999999523162842</v>
+        <v>1</v>
       </c>
       <c r="W35" s="0">
-        <v>0.079999998211860657</v>
+        <v>1</v>
       </c>
       <c r="X35" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="Y35" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="0">
-        <v>0.87999999523162842</v>
-      </c>
-      <c r="AJ35" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AK35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AO35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR35" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36">
@@ -4861,73 +3141,16 @@
         <v>0.30000001192092896</v>
       </c>
       <c r="V36" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="W36" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X36" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AB36" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AC36" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AD36" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AE36" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AF36" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AG36" s="0"/>
-      <c r="AH36" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AK36" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AM36" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AN36" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AO36" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AP36" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AQ36" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AR36" s="0"/>
-      <c r="AS36" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37">
@@ -4995,41 +3218,14 @@
       <c r="V37" s="0">
         <v>1</v>
       </c>
-      <c r="W37" s="0"/>
-      <c r="X37" s="0"/>
-      <c r="Y37" s="0"/>
-      <c r="Z37" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="0"/>
-      <c r="AB37" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="0"/>
-      <c r="AD37" s="0"/>
-      <c r="AE37" s="0"/>
-      <c r="AF37" s="0"/>
-      <c r="AG37" s="0"/>
-      <c r="AH37" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="0">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="0"/>
-      <c r="AK37" s="0"/>
-      <c r="AL37" s="0"/>
-      <c r="AM37" s="0"/>
-      <c r="AN37" s="0"/>
-      <c r="AO37" s="0"/>
-      <c r="AP37" s="0"/>
-      <c r="AQ37" s="0"/>
-      <c r="AR37" s="0"/>
-      <c r="AS37" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>169</v>
+      <c r="W37" s="0">
+        <v>1</v>
+      </c>
+      <c r="X37" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="38">
@@ -5095,41 +3291,14 @@
       <c r="V38" s="0">
         <v>1</v>
       </c>
-      <c r="W38" s="0"/>
-      <c r="X38" s="0"/>
-      <c r="Y38" s="0"/>
-      <c r="Z38" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="0"/>
-      <c r="AB38" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="0"/>
-      <c r="AD38" s="0"/>
-      <c r="AE38" s="0"/>
-      <c r="AF38" s="0"/>
-      <c r="AG38" s="0"/>
-      <c r="AH38" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="0">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="0"/>
-      <c r="AK38" s="0"/>
-      <c r="AL38" s="0"/>
-      <c r="AM38" s="0"/>
-      <c r="AN38" s="0"/>
-      <c r="AO38" s="0"/>
-      <c r="AP38" s="0"/>
-      <c r="AQ38" s="0"/>
-      <c r="AR38" s="0"/>
-      <c r="AS38" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>169</v>
+      <c r="W38" s="0">
+        <v>1</v>
+      </c>
+      <c r="X38" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -5195,41 +3364,14 @@
       <c r="V39" s="0">
         <v>1</v>
       </c>
-      <c r="W39" s="0"/>
-      <c r="X39" s="0"/>
-      <c r="Y39" s="0"/>
-      <c r="Z39" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="0"/>
-      <c r="AB39" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="0"/>
-      <c r="AD39" s="0"/>
-      <c r="AE39" s="0"/>
-      <c r="AF39" s="0"/>
-      <c r="AG39" s="0"/>
-      <c r="AH39" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="0">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="0"/>
-      <c r="AK39" s="0"/>
-      <c r="AL39" s="0"/>
-      <c r="AM39" s="0"/>
-      <c r="AN39" s="0"/>
-      <c r="AO39" s="0"/>
-      <c r="AP39" s="0"/>
-      <c r="AQ39" s="0"/>
-      <c r="AR39" s="0"/>
-      <c r="AS39" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>168</v>
+      <c r="W39" s="0">
+        <v>1</v>
+      </c>
+      <c r="X39" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -5295,41 +3437,14 @@
       <c r="V40" s="0">
         <v>1</v>
       </c>
-      <c r="W40" s="0"/>
-      <c r="X40" s="0"/>
-      <c r="Y40" s="0"/>
-      <c r="Z40" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="0"/>
-      <c r="AB40" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="0"/>
-      <c r="AD40" s="0"/>
-      <c r="AE40" s="0"/>
-      <c r="AF40" s="0"/>
-      <c r="AG40" s="0"/>
-      <c r="AH40" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="0">
-        <v>1</v>
-      </c>
-      <c r="AJ40" s="0"/>
-      <c r="AK40" s="0"/>
-      <c r="AL40" s="0"/>
-      <c r="AM40" s="0"/>
-      <c r="AN40" s="0"/>
-      <c r="AO40" s="0"/>
-      <c r="AP40" s="0"/>
-      <c r="AQ40" s="0"/>
-      <c r="AR40" s="0"/>
-      <c r="AS40" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>169</v>
+      <c r="W40" s="0">
+        <v>1</v>
+      </c>
+      <c r="X40" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="41">
@@ -5394,76 +3509,13 @@
         <v>0.059999998658895493</v>
       </c>
       <c r="W41" s="0">
-        <v>0</v>
+        <v>0.059999998658895493</v>
       </c>
       <c r="X41" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="0">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="Z41" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="AA41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="0">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="AI41" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AJ41" s="0">
-        <v>0.070000000298023224</v>
-      </c>
-      <c r="AK41" s="0">
-        <v>0.28999999165534973</v>
-      </c>
-      <c r="AL41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="0">
-        <v>0.38999998569488525</v>
-      </c>
-      <c r="AS41" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>169</v>
+        <v>1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42">
@@ -5529,65 +3581,16 @@
         <v>0</v>
       </c>
       <c r="V42" s="0">
-        <v>0.69999998807907104</v>
+        <v>1</v>
       </c>
       <c r="W42" s="0">
-        <v>0.10000000149011612</v>
+        <v>1</v>
       </c>
       <c r="X42" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="Y42" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Z42" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="0"/>
-      <c r="AB42" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AC42" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AD42" s="0"/>
-      <c r="AE42" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="AF42" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AG42" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AH42" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="0"/>
-      <c r="AJ42" s="0"/>
-      <c r="AK42" s="0"/>
-      <c r="AL42" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AM42" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="AN42" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AO42" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AP42" s="0"/>
-      <c r="AQ42" s="0"/>
-      <c r="AR42" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AS42" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="43">
@@ -5651,79 +3654,16 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W43" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="X43" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Y43" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="AC43" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AD43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="AJ43" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AK43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AM43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="44">
@@ -5789,77 +3729,16 @@
         <v>0</v>
       </c>
       <c r="V44" s="0">
-        <v>0.44999998807907104</v>
+        <v>0.99999994039535522</v>
       </c>
       <c r="W44" s="0">
-        <v>0.34999999403953552</v>
+        <v>1</v>
       </c>
       <c r="X44" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="Y44" s="0">
-        <v>5.9604644775390625e-008</v>
-      </c>
-      <c r="Z44" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="AA44" s="0"/>
-      <c r="AB44" s="0">
-        <v>0.85000002384185791</v>
-      </c>
-      <c r="AC44" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AD44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="0">
-        <v>0.44999998807907104</v>
-      </c>
-      <c r="AJ44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AM44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN44" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AO44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR44" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AS44" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="45">
@@ -5923,79 +3802,16 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>0.89999997615814209</v>
+        <v>1</v>
       </c>
       <c r="W45" s="0">
-        <v>0.10000000149011612</v>
+        <v>1</v>
       </c>
       <c r="X45" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="0">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="AC45" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AD45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AJ45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AN45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT45" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="46">
@@ -6059,51 +3875,16 @@
         <v>1</v>
       </c>
       <c r="V46" s="0">
-        <v>0.059999998658895493</v>
+        <v>1</v>
       </c>
       <c r="W46" s="0">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="X46" s="0"/>
-      <c r="Y46" s="0"/>
-      <c r="Z46" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="0"/>
-      <c r="AB46" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="AC46" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AD46" s="0"/>
-      <c r="AE46" s="0"/>
-      <c r="AF46" s="0"/>
-      <c r="AG46" s="0"/>
-      <c r="AH46" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="0"/>
-      <c r="AJ46" s="0">
-        <v>0.33000001311302185</v>
-      </c>
-      <c r="AK46" s="0"/>
-      <c r="AL46" s="0"/>
-      <c r="AM46" s="0">
-        <v>0.41999998688697815</v>
-      </c>
-      <c r="AN46" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AO46" s="0"/>
-      <c r="AP46" s="0"/>
-      <c r="AQ46" s="0"/>
-      <c r="AR46" s="0"/>
-      <c r="AS46" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>167</v>
+        <v>1</v>
+      </c>
+      <c r="X46" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47">
@@ -6169,65 +3950,16 @@
         <v>0</v>
       </c>
       <c r="V47" s="0">
-        <v>0.55000001192092896</v>
+        <v>1</v>
       </c>
       <c r="W47" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="X47" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="Y47" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="Z47" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="0"/>
-      <c r="AB47" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC47" s="0"/>
-      <c r="AD47" s="0"/>
-      <c r="AE47" s="0"/>
-      <c r="AF47" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AG47" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AH47" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="0">
-        <v>0.44999998807907104</v>
-      </c>
-      <c r="AJ47" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AK47" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL47" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AM47" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AN47" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AO47" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP47" s="0"/>
-      <c r="AQ47" s="0"/>
-      <c r="AR47" s="0"/>
-      <c r="AS47" s="0">
         <v>1.0000001192092896</v>
       </c>
-      <c r="AT47" t="s">
-        <v>170</v>
+      <c r="Y47" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48">
@@ -6293,63 +4025,16 @@
         <v>0</v>
       </c>
       <c r="V48" s="0">
-        <v>0.60000002384185791</v>
+        <v>1</v>
       </c>
       <c r="W48" s="0">
-        <v>0.15000000596046448</v>
+        <v>1</v>
       </c>
       <c r="X48" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="Y48" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="Z48" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="0"/>
-      <c r="AB48" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC48" s="0"/>
-      <c r="AD48" s="0"/>
-      <c r="AE48" s="0"/>
-      <c r="AF48" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AG48" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AH48" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AJ48" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AK48" s="0"/>
-      <c r="AL48" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AM48" s="0"/>
-      <c r="AN48" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AO48" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP48" s="0"/>
-      <c r="AQ48" s="0"/>
-      <c r="AR48" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AS48" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49">
@@ -6411,61 +4096,16 @@
         <v>0</v>
       </c>
       <c r="V49" s="0">
-        <v>0.64999997615814209</v>
+        <v>0.99999994039535522</v>
       </c>
       <c r="W49" s="0">
-        <v>0.15000000596046448</v>
+        <v>1</v>
       </c>
       <c r="X49" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="Y49" s="0">
-        <v>5.9604644775390625e-008</v>
-      </c>
-      <c r="Z49" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="AA49" s="0"/>
-      <c r="AB49" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC49" s="0"/>
-      <c r="AD49" s="0"/>
-      <c r="AE49" s="0"/>
-      <c r="AF49" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AG49" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AH49" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AJ49" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AK49" s="0"/>
-      <c r="AL49" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AM49" s="0"/>
-      <c r="AN49" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AO49" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP49" s="0"/>
-      <c r="AQ49" s="0"/>
-      <c r="AR49" s="0"/>
-      <c r="AS49" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="50">
@@ -6529,57 +4169,16 @@
         <v>0</v>
       </c>
       <c r="V50" s="0">
-        <v>0.60000002384185791</v>
+        <v>1</v>
       </c>
       <c r="W50" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X50" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="0"/>
-      <c r="AB50" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AC50" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AD50" s="0"/>
-      <c r="AE50" s="0"/>
-      <c r="AF50" s="0"/>
-      <c r="AG50" s="0"/>
-      <c r="AH50" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AJ50" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AK50" s="0"/>
-      <c r="AL50" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AM50" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AN50" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO50" s="0"/>
-      <c r="AP50" s="0"/>
-      <c r="AQ50" s="0"/>
-      <c r="AR50" s="0"/>
-      <c r="AS50" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51">
@@ -6647,79 +4246,16 @@
         <v>0</v>
       </c>
       <c r="V51" s="0">
-        <v>0.30000001192092896</v>
+        <v>1</v>
       </c>
       <c r="W51" s="0">
-        <v>0.41999998688697815</v>
+        <v>1</v>
       </c>
       <c r="X51" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="Y51" s="0">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="Z51" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AB51" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AC51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AG51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="0">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="AJ51" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AK51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL51" s="0">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="AM51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO51" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="AP51" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AQ51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR51" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="52">
@@ -6783,55 +4319,16 @@
         <v>0</v>
       </c>
       <c r="V52" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W52" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X52" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="Y52" s="0"/>
-      <c r="Z52" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="0"/>
-      <c r="AB52" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="AC52" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AD52" s="0"/>
-      <c r="AE52" s="0"/>
-      <c r="AF52" s="0"/>
-      <c r="AG52" s="0"/>
-      <c r="AH52" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AJ52" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AK52" s="0"/>
-      <c r="AL52" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AM52" s="0"/>
-      <c r="AN52" s="0"/>
-      <c r="AO52" s="0"/>
-      <c r="AP52" s="0"/>
-      <c r="AQ52" s="0"/>
-      <c r="AR52" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AS52" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT52" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="53">
@@ -6895,57 +4392,16 @@
         <v>0</v>
       </c>
       <c r="V53" s="0">
-        <v>0.40000000596046448</v>
+        <v>1</v>
       </c>
       <c r="W53" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="X53" s="0"/>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AB53" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AC53" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AD53" s="0"/>
-      <c r="AE53" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AF53" s="0"/>
-      <c r="AG53" s="0"/>
-      <c r="AH53" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AJ53" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AK53" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="AL53" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AM53" s="0"/>
-      <c r="AN53" s="0"/>
-      <c r="AO53" s="0"/>
-      <c r="AP53" s="0"/>
-      <c r="AQ53" s="0"/>
-      <c r="AR53" s="0"/>
-      <c r="AS53" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="X53" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="54">
@@ -7009,63 +4465,16 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>0.30000001192092896</v>
+        <v>1</v>
       </c>
       <c r="W54" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="X54" s="0"/>
-      <c r="Y54" s="0"/>
-      <c r="Z54" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="0">
-        <v>0.56000000238418579</v>
-      </c>
-      <c r="AC54" s="0">
-        <v>0.37999999523162842</v>
-      </c>
-      <c r="AD54" s="0"/>
-      <c r="AE54" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="AF54" s="0"/>
-      <c r="AG54" s="0"/>
-      <c r="AH54" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AJ54" s="0">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="AK54" s="0">
-        <v>0.5899999737739563</v>
-      </c>
-      <c r="AL54" s="0"/>
-      <c r="AM54" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AN54" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AO54" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AP54" s="0"/>
-      <c r="AQ54" s="0"/>
-      <c r="AR54" s="0">
-        <v>0.16000011563301086</v>
-      </c>
-      <c r="AS54" s="0">
+        <v>1</v>
+      </c>
+      <c r="X54" s="0">
         <v>0.99999988079071045</v>
       </c>
-      <c r="AT54" t="s">
-        <v>168</v>
+      <c r="Y54" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="55">
@@ -7129,63 +4538,16 @@
         <v>0.0099999997764825821</v>
       </c>
       <c r="V55" s="0">
-        <v>0.47999998927116394</v>
+        <v>1</v>
       </c>
       <c r="W55" s="0">
-        <v>0.51999998092651367</v>
-      </c>
-      <c r="X55" s="0"/>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="0"/>
-      <c r="AB55" s="0">
-        <v>0.40999999642372131</v>
-      </c>
-      <c r="AC55" s="0">
-        <v>0.37999999523162842</v>
-      </c>
-      <c r="AD55" s="0"/>
-      <c r="AE55" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AF55" s="0"/>
-      <c r="AG55" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH55" s="0">
         <v>0.98999994993209839</v>
       </c>
-      <c r="AI55" s="0">
-        <v>0.12999999523162842</v>
-      </c>
-      <c r="AJ55" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AK55" s="0">
-        <v>0.46000000834465027</v>
-      </c>
-      <c r="AL55" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AM55" s="0"/>
-      <c r="AN55" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AO55" s="0"/>
-      <c r="AP55" s="0"/>
-      <c r="AQ55" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AR55" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AS55" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>168</v>
+      <c r="X55" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="56">
@@ -7257,71 +4619,8 @@
       <c r="X56" s="0">
         <v>0</v>
       </c>
-      <c r="Y56" s="0">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="0">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AI56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="0">
-        <v>1</v>
-      </c>
-      <c r="AS56" s="0">
-        <v>0</v>
-      </c>
-      <c r="AT56" t="s">
-        <v>169</v>
+      <c r="Y56" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="57">
@@ -7387,63 +4686,16 @@
         <v>0.019999999552965164</v>
       </c>
       <c r="V57" s="0">
-        <v>0.039999999105930328</v>
+        <v>1</v>
       </c>
       <c r="W57" s="0">
-        <v>0.57999998331069946</v>
+        <v>1</v>
       </c>
       <c r="X57" s="0">
-        <v>0.37999999523162842</v>
-      </c>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="0"/>
-      <c r="AB57" s="0">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="0"/>
-      <c r="AD57" s="0"/>
-      <c r="AE57" s="0"/>
-      <c r="AF57" s="0"/>
-      <c r="AG57" s="0"/>
-      <c r="AH57" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="0">
-        <v>0.14000000059604645</v>
-      </c>
-      <c r="AK57" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="0">
-        <v>0.43000000715255737</v>
-      </c>
-      <c r="AM57" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="AN57" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AO57" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP57" s="0">
-        <v>0.23999999463558197</v>
-      </c>
-      <c r="AQ57" s="0"/>
-      <c r="AR57" s="0">
-        <v>0.019999980926513672</v>
-      </c>
-      <c r="AS57" s="0">
         <v>0.98000001907348633</v>
       </c>
-      <c r="AT57" t="s">
-        <v>170</v>
+      <c r="Y57" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="58">
@@ -7511,63 +4763,16 @@
         <v>0.94999998807907104</v>
       </c>
       <c r="V58" s="0">
-        <v>0.039999999105930328</v>
+        <v>1</v>
       </c>
       <c r="W58" s="0">
-        <v>0.89999997615814209</v>
+        <v>1</v>
       </c>
       <c r="X58" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="Y58" s="0"/>
-      <c r="Z58" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AC58" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AD58" s="0"/>
-      <c r="AE58" s="0"/>
-      <c r="AF58" s="0"/>
-      <c r="AG58" s="0"/>
-      <c r="AH58" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="0"/>
-      <c r="AJ58" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AK58" s="0"/>
-      <c r="AL58" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AM58" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AN58" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AO58" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AP58" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AQ58" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AR58" s="0"/>
-      <c r="AS58" s="0">
         <v>1.0000001192092896</v>
       </c>
-      <c r="AT58" t="s">
-        <v>167</v>
+      <c r="Y58" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59">
@@ -7629,75 +4834,16 @@
       </c>
       <c r="U59" s="0"/>
       <c r="V59" s="0">
-        <v>0.68000000715255737</v>
+        <v>1</v>
       </c>
       <c r="W59" s="0">
-        <v>0.23000000417232513</v>
+        <v>1</v>
       </c>
       <c r="X59" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="0">
-        <v>0.55000001192092896</v>
-      </c>
-      <c r="AC59" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AD59" s="0">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="AE59" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AF59" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AG59" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AH59" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="0">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="AJ59" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AK59" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AL59" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AM59" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AN59" s="0">
-        <v>0.27000001072883606</v>
-      </c>
-      <c r="AO59" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AP59" s="0">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="AQ59" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AR59" s="0"/>
-      <c r="AS59" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60">
@@ -7761,71 +4907,16 @@
         <v>0</v>
       </c>
       <c r="V60" s="0">
-        <v>0.25</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="W60" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="X60" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="Y60" s="0">
-        <v>0.24999998509883881</v>
-      </c>
-      <c r="Z60" s="0">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="AA60" s="0">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH60" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ60" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AK60" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL60" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AM60" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AN60" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AO60" s="0"/>
-      <c r="AP60" s="0"/>
-      <c r="AQ60" s="0"/>
-      <c r="AR60" s="0"/>
-      <c r="AS60" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>172</v>
+        <v>1</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61">
@@ -7891,69 +4982,16 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>0.37000000476837158</v>
+        <v>1</v>
       </c>
       <c r="W61" s="0">
-        <v>0.11999999731779099</v>
+        <v>1</v>
       </c>
       <c r="X61" s="0">
-        <v>0.50999999046325684</v>
-      </c>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="0"/>
-      <c r="AB61" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AC61" s="0">
-        <v>0.30000001192092896</v>
-      </c>
-      <c r="AD61" s="0"/>
-      <c r="AE61" s="0"/>
-      <c r="AF61" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="AG61" s="0"/>
-      <c r="AH61" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI61" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AJ61" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK61" s="0">
-        <v>0.10999999940395355</v>
-      </c>
-      <c r="AL61" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM61" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO61" s="0">
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="AP61" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AQ61" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR61" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS61" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>168</v>
+        <v>1</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="62">
@@ -8021,53 +5059,16 @@
         <v>0.10000000149011612</v>
       </c>
       <c r="V62" s="0">
-        <v>0.89999997615814209</v>
+        <v>1</v>
       </c>
       <c r="W62" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="X62" s="0"/>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="0"/>
-      <c r="AB62" s="0"/>
-      <c r="AC62" s="0"/>
-      <c r="AD62" s="0"/>
-      <c r="AE62" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="AF62" s="0"/>
-      <c r="AG62" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AH62" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI62" s="0"/>
-      <c r="AJ62" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AK62" s="0"/>
-      <c r="AL62" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AM62" s="0"/>
-      <c r="AN62" s="0"/>
-      <c r="AO62" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP62" s="0"/>
-      <c r="AQ62" s="0"/>
-      <c r="AR62" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="AS62" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="X62" s="0">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="63">
@@ -8135,69 +5136,16 @@
         <v>0.15000000596046448</v>
       </c>
       <c r="V63" s="0">
-        <v>0.40000000596046448</v>
+        <v>1</v>
       </c>
       <c r="W63" s="0">
-        <v>0.34999999403953552</v>
+        <v>1</v>
       </c>
       <c r="X63" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="Y63" s="0"/>
-      <c r="Z63" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="0"/>
-      <c r="AB63" s="0">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="AC63" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AD63" s="0">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="AE63" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AF63" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AG63" s="0"/>
-      <c r="AH63" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI63" s="0"/>
-      <c r="AJ63" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AK63" s="0">
-        <v>0.20000000298023224</v>
-      </c>
-      <c r="AL63" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="AM63" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="AN63" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AO63" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AP63" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AQ63" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="AR63" s="0"/>
-      <c r="AS63" s="0">
         <v>1.0000001192092896</v>
       </c>
-      <c r="AT63" t="s">
-        <v>170</v>
+      <c r="Y63" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="64">
@@ -8263,75 +5211,16 @@
         <v>0.05000000074505806</v>
       </c>
       <c r="V64" s="0">
-        <v>0.87000000476837158</v>
+        <v>1</v>
       </c>
       <c r="W64" s="0">
-        <v>0.090000003576278687</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="X64" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="Y64" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="AB64" s="0">
-        <v>0.5899999737739563</v>
-      </c>
-      <c r="AC64" s="0">
-        <v>0.18000000715255737</v>
-      </c>
-      <c r="AD64" s="0"/>
-      <c r="AE64" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="AF64" s="0"/>
-      <c r="AG64" s="0">
-        <v>0.049999989569187164</v>
-      </c>
-      <c r="AH64" s="0">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="AI64" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AJ64" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AK64" s="0">
-        <v>0.18999999761581421</v>
-      </c>
-      <c r="AL64" s="0">
-        <v>0.090000003576278687</v>
-      </c>
-      <c r="AM64" s="0">
-        <v>0.56999999284744263</v>
-      </c>
-      <c r="AN64" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AO64" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AP64" s="0">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="AQ64" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="AR64" s="0">
-        <v>5.9604644775390625e-008</v>
-      </c>
-      <c r="AS64" s="0">
         <v>0.99999994039535522</v>
       </c>
-      <c r="AT64" t="s">
-        <v>167</v>
+      <c r="Y64" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65">
@@ -8392,44 +5281,17 @@
       <c r="U65" s="0">
         <v>0</v>
       </c>
-      <c r="V65" s="0"/>
-      <c r="W65" s="0"/>
+      <c r="V65" s="0">
+        <v>1</v>
+      </c>
+      <c r="W65" s="0">
+        <v>1</v>
+      </c>
       <c r="X65" s="0">
         <v>1</v>
       </c>
-      <c r="Y65" s="0"/>
-      <c r="Z65" s="0">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="0"/>
-      <c r="AB65" s="0"/>
-      <c r="AC65" s="0"/>
-      <c r="AD65" s="0"/>
-      <c r="AE65" s="0"/>
-      <c r="AF65" s="0">
-        <v>1</v>
-      </c>
-      <c r="AG65" s="0"/>
-      <c r="AH65" s="0">
-        <v>1</v>
-      </c>
-      <c r="AI65" s="0"/>
-      <c r="AJ65" s="0"/>
-      <c r="AK65" s="0"/>
-      <c r="AL65" s="0"/>
-      <c r="AM65" s="0"/>
-      <c r="AN65" s="0"/>
-      <c r="AO65" s="0"/>
-      <c r="AP65" s="0">
-        <v>1</v>
-      </c>
-      <c r="AQ65" s="0"/>
-      <c r="AR65" s="0"/>
-      <c r="AS65" s="0">
-        <v>1</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>170</v>
+      <c r="Y65" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/Projects.xlsx
+++ b/dashboard/Projects.xlsx
@@ -13,20 +13,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="156">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>88734000000030041</t>
-  </si>
-  <si>
-    <t>88734000000032089</t>
-  </si>
-  <si>
-    <t>88734000000035013</t>
-  </si>
-  <si>
     <t>88734000000036009</t>
   </si>
   <si>
@@ -129,9 +120,6 @@
     <t>88734000000046029</t>
   </si>
   <si>
-    <t>88734000000046039</t>
-  </si>
-  <si>
     <t>88734000000046049</t>
   </si>
   <si>
@@ -213,15 +201,6 @@
     <t>Project</t>
   </si>
   <si>
-    <t>various 2020</t>
-  </si>
-  <si>
-    <t>Support Skilling Uganda/ SSU</t>
-  </si>
-  <si>
-    <t>Right to Learn – Improving access to and quality of education in Palabek Refugee Settlement</t>
-  </si>
-  <si>
     <t>Secondary and Vocational Education Management in West Nile (Adjumani)</t>
   </si>
   <si>
@@ -306,9 +285,6 @@
     <t>S. Sudanese Refugee Response: Education Infrastructure in Northern Uganda</t>
   </si>
   <si>
-    <t>Education Cannot Wait (ECW) - Access to Education for all</t>
-  </si>
-  <si>
     <t>EDUCATION INFRASTRUCTURE FOR CONGOLESE REFUGEES AND HOST COMMUNITIES IN SOUTHWESTERN UGANDA</t>
   </si>
   <si>
@@ -387,6 +363,9 @@
     <t>budget_USD</t>
   </si>
   <si>
+    <t>USD_spent</t>
+  </si>
+  <si>
     <t>execution_rate</t>
   </si>
   <si>
@@ -414,6 +393,9 @@
     <t>active_2</t>
   </si>
   <si>
+    <t>total_ERP_3Y</t>
+  </si>
+  <si>
     <t>Districts_RHC</t>
   </si>
   <si>
@@ -435,15 +417,30 @@
     <t>Spendprop_RHC_all</t>
   </si>
   <si>
+    <t>total_RHC_3Y</t>
+  </si>
+  <si>
     <t>A_erp</t>
   </si>
   <si>
+    <t>specific_spend</t>
+  </si>
+  <si>
     <t>erp_relevant_prop</t>
   </si>
   <si>
+    <t>relevant_spend</t>
+  </si>
+  <si>
     <t>sum_outcomes_raw</t>
   </si>
   <si>
+    <t>National_spend</t>
+  </si>
+  <si>
+    <t>District_spend</t>
+  </si>
+  <si>
     <t>sum_programme_raw</t>
   </si>
   <si>
@@ -453,22 +450,37 @@
     <t>donor_summary</t>
   </si>
   <si>
+    <t>Multi-lateral</t>
+  </si>
+  <si>
+    <t>Private donors</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Combination</t>
   </si>
   <si>
-    <t>Multi-lateral</t>
-  </si>
-  <si>
-    <t>Private donors</t>
-  </si>
-  <si>
-    <t>Bilateral</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Foundation</t>
+  </si>
+  <si>
+    <t>implementor_summary</t>
+  </si>
+  <si>
+    <t>NGO</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>Social enterprise</t>
+  </si>
+  <si>
+    <t>Consultancy</t>
   </si>
 </sst>
 </file>
@@ -514,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y65"/>
+  <dimension ref="A1:AG61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -522,76 +534,100 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>124</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>125</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>126</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>127</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>131</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>132</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>133</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>134</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>135</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>136</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>137</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Z1" t="s">
         <v>138</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>139</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>140</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>141</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>142</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>143</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" t="s">
-        <v>145</v>
+      <c r="AG1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -599,72 +635,92 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0">
-        <v>12407000</v>
+        <v>459519</v>
       </c>
       <c r="D2" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43831</v>
+        <v>451856.03125</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.98000001907348633</v>
       </c>
       <c r="F2" s="1">
-        <v>44042</v>
+        <v>43101</v>
       </c>
       <c r="G2" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H2" s="0">
-        <v>6.940000057220459</v>
+        <v>43131</v>
+      </c>
+      <c r="H2" s="1">
+        <v>43131</v>
       </c>
       <c r="I2" s="0">
-        <v>720461.0625</v>
-      </c>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0">
-        <v>6</v>
-      </c>
-      <c r="M2" s="0">
-        <v>7</v>
-      </c>
+        <v>0.99000000953674316</v>
+      </c>
+      <c r="J2" s="0">
+        <v>456420.21875</v>
+      </c>
+      <c r="K2" s="0">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
       <c r="N2" s="0">
-        <v>8</v>
+        <v>456420.21875</v>
       </c>
       <c r="O2" s="0">
         <v>1</v>
       </c>
       <c r="P2" s="0">
-        <v>0.98000001907348633</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.85750001668930054</v>
+        <v>1</v>
       </c>
       <c r="R2" s="0">
-        <v>0.019999999552965164</v>
+        <v>1</v>
       </c>
       <c r="S2" s="0">
-        <v>0.87749999761581421</v>
-      </c>
-      <c r="T2" s="0">
-        <v>0.99000000953674316</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T2" s="0"/>
       <c r="U2" s="0">
-        <v>0.0099999997764825821</v>
+        <v>1</v>
       </c>
       <c r="V2" s="0">
-        <v>1</v>
+        <v>456420.21875</v>
       </c>
       <c r="W2" s="0">
         <v>1</v>
       </c>
       <c r="X2" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>146</v>
+        <v>456420.21875</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0">
+        <v>456420.21875</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3">
@@ -672,76 +728,92 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0">
-        <v>32584270</v>
+        <v>595815.25</v>
       </c>
       <c r="D3" s="0">
-        <v>0.81000000238418579</v>
-      </c>
-      <c r="E3" s="1">
-        <v>42552</v>
+        <v>595815.25</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>44012</v>
+        <v>43466</v>
       </c>
       <c r="G3" s="1">
-        <v>44378</v>
-      </c>
-      <c r="H3" s="0">
-        <v>48</v>
+        <v>43496</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43496</v>
       </c>
       <c r="I3" s="0">
-        <v>550093.625</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="J3" s="0">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0">
-        <v>12</v>
-      </c>
+        <v>601833.5625</v>
+      </c>
+      <c r="K3" s="0"/>
       <c r="L3" s="0">
-        <v>12</v>
-      </c>
-      <c r="M3" s="0">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M3" s="0"/>
       <c r="N3" s="0">
-        <v>20</v>
+        <v>4212835</v>
       </c>
       <c r="O3" s="0">
         <v>1</v>
       </c>
       <c r="P3" s="0">
-        <v>0.80000001192092896</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.24000000953674316</v>
+        <v>1</v>
       </c>
       <c r="R3" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="S3" s="0">
-        <v>0.43999999761581421</v>
-      </c>
-      <c r="T3" s="0">
-        <v>0.25</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T3" s="0"/>
       <c r="U3" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="0">
-        <v>1</v>
+        <v>4212835</v>
       </c>
       <c r="W3" s="0">
         <v>1</v>
       </c>
       <c r="X3" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>146</v>
+        <v>4212835</v>
+      </c>
+      <c r="Y3" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0">
+        <v>4212835</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>0.93000000715255737</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4">
@@ -749,35 +821,39 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0">
-        <v>563221</v>
+        <v>112359.546875</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43466</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>114495.625</v>
+      </c>
+      <c r="E4" s="0">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43101</v>
+      </c>
       <c r="G4" s="1">
-        <v>44561</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="0"/>
+        <v>43131</v>
+      </c>
+      <c r="H4" s="1">
+        <v>43131</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.99000000953674316</v>
+      </c>
+      <c r="J4" s="0">
+        <v>115652.1484375</v>
+      </c>
       <c r="K4" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="L4" s="0">
-        <v>12</v>
-      </c>
-      <c r="M4" s="0">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
       <c r="N4" s="0">
-        <v>2</v>
+        <v>115652.1484375</v>
       </c>
       <c r="O4" s="0">
         <v>1</v>
@@ -786,27 +862,51 @@
         <v>1</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="R4" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="R4" s="0">
+        <v>1</v>
+      </c>
       <c r="S4" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="0">
-        <v>1</v>
-      </c>
-      <c r="U4" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0">
+        <v>1</v>
+      </c>
       <c r="V4" s="0">
-        <v>0.34000000357627869</v>
+        <v>115652.1484375</v>
       </c>
       <c r="W4" s="0">
         <v>1</v>
       </c>
       <c r="X4" s="0">
-        <v>0.079999998211860657</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>147</v>
+        <v>115652.1484375</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0">
+        <v>115652.1484375</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="5">
@@ -814,39 +914,41 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" s="0">
-        <v>459519</v>
+        <v>86945</v>
       </c>
       <c r="D5" s="0">
+        <v>84873.5234375</v>
+      </c>
+      <c r="E5" s="0">
         <v>0.98000001907348633</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>43101</v>
       </c>
-      <c r="F5" s="1">
-        <v>43131</v>
-      </c>
       <c r="G5" s="1">
-        <v>43131</v>
-      </c>
-      <c r="H5" s="0">
-        <v>0.99000000953674316</v>
+        <v>43465</v>
+      </c>
+      <c r="H5" s="1">
+        <v>43465</v>
       </c>
       <c r="I5" s="0">
-        <v>456420.21875</v>
+        <v>11.970000267028809</v>
       </c>
       <c r="J5" s="0">
-        <v>1</v>
-      </c>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
-      <c r="M5" s="0">
-        <v>1</v>
-      </c>
+        <v>7090.51953125</v>
+      </c>
+      <c r="K5" s="0">
+        <v>5.9000000953674316</v>
+      </c>
+      <c r="L5" s="0">
+        <v>6</v>
+      </c>
+      <c r="M5" s="0"/>
       <c r="N5" s="0">
-        <v>1</v>
+        <v>84377.1875</v>
       </c>
       <c r="O5" s="0">
         <v>1</v>
@@ -857,27 +959,45 @@
       <c r="Q5" s="0">
         <v>1</v>
       </c>
-      <c r="R5" s="0"/>
+      <c r="R5" s="0">
+        <v>1</v>
+      </c>
       <c r="S5" s="0">
         <v>1</v>
       </c>
-      <c r="T5" s="0">
-        <v>1</v>
-      </c>
+      <c r="T5" s="0"/>
       <c r="U5" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>84377.1875</v>
       </c>
       <c r="W5" s="0">
         <v>1</v>
       </c>
       <c r="X5" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>147</v>
+        <v>84377.1875</v>
+      </c>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0">
+        <v>0.54000002145767212</v>
+      </c>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0">
+        <v>84377.1875</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -885,70 +1005,92 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0">
-        <v>595815.25</v>
+        <v>146067.421875</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43466</v>
+        <v>69523.9375</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.47999998927116394</v>
       </c>
       <c r="F6" s="1">
-        <v>43496</v>
+        <v>43739</v>
       </c>
       <c r="G6" s="1">
-        <v>43496</v>
-      </c>
-      <c r="H6" s="0">
-        <v>0.99000000953674316</v>
+        <v>43830</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44196</v>
       </c>
       <c r="I6" s="0">
-        <v>601833.5625</v>
-      </c>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0">
-        <v>7</v>
-      </c>
+        <v>2.9900000095367432</v>
+      </c>
+      <c r="J6" s="0">
+        <v>23252.15234375</v>
+      </c>
+      <c r="K6" s="0"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N6" s="0">
-        <v>1</v>
+        <v>209269.375</v>
       </c>
       <c r="O6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="0">
         <v>1</v>
       </c>
-      <c r="R6" s="0"/>
+      <c r="R6" s="0">
+        <v>1</v>
+      </c>
       <c r="S6" s="0">
         <v>1</v>
       </c>
-      <c r="T6" s="0">
-        <v>1</v>
-      </c>
+      <c r="T6" s="0"/>
       <c r="U6" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="0">
-        <v>1</v>
+        <v>209269.375</v>
       </c>
       <c r="W6" s="0">
         <v>1</v>
       </c>
       <c r="X6" s="0">
-        <v>0.93000000715255737</v>
-      </c>
-      <c r="Y6" t="s">
+        <v>209269.375</v>
+      </c>
+      <c r="Y6" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0">
+        <v>209269.375</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="AF6" t="s">
         <v>147</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7">
@@ -956,39 +1098,41 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="0">
-        <v>112359.546875</v>
+        <v>76586</v>
       </c>
       <c r="D7" s="0">
-        <v>1.0199999809265137</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43101</v>
+        <v>79021.6875</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1.0299999713897705</v>
       </c>
       <c r="F7" s="1">
-        <v>43131</v>
+        <v>43466</v>
       </c>
       <c r="G7" s="1">
-        <v>43131</v>
-      </c>
-      <c r="H7" s="0">
-        <v>0.99000000953674316</v>
+        <v>43830</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43830</v>
       </c>
       <c r="I7" s="0">
-        <v>115652.1484375</v>
+        <v>11.970000267028809</v>
       </c>
       <c r="J7" s="0">
-        <v>1</v>
+        <v>6601.64453125</v>
       </c>
       <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
+      <c r="L7" s="0">
+        <v>5.9000000953674316</v>
+      </c>
       <c r="M7" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="0">
-        <v>1</v>
+        <v>78559.5703125</v>
       </c>
       <c r="O7" s="0">
         <v>1</v>
@@ -999,26 +1143,48 @@
       <c r="Q7" s="0">
         <v>1</v>
       </c>
-      <c r="R7" s="0"/>
+      <c r="R7" s="0">
+        <v>1</v>
+      </c>
       <c r="S7" s="0">
         <v>1</v>
       </c>
-      <c r="T7" s="0">
-        <v>1</v>
-      </c>
+      <c r="T7" s="0"/>
       <c r="U7" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="0">
-        <v>0.89999997615814209</v>
+        <v>78559.5703125</v>
       </c>
       <c r="W7" s="0">
         <v>1</v>
       </c>
       <c r="X7" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
+        <v>78559.5703125</v>
+      </c>
+      <c r="Y7" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0">
+        <v>78559.5703125</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>0.96999996900558472</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG7" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1027,41 +1193,41 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" s="0">
-        <v>86945</v>
+        <v>75612</v>
       </c>
       <c r="D8" s="0">
-        <v>0.98000001907348633</v>
-      </c>
-      <c r="E8" s="1">
+        <v>75612</v>
+      </c>
+      <c r="E8" s="0">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>43101</v>
-      </c>
-      <c r="F8" s="1">
-        <v>43465</v>
       </c>
       <c r="G8" s="1">
         <v>43465</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8" s="1">
+        <v>43465</v>
+      </c>
+      <c r="I8" s="0">
         <v>11.970000267028809</v>
       </c>
-      <c r="I8" s="0">
-        <v>7090.51953125</v>
-      </c>
       <c r="J8" s="0">
+        <v>6316.7919921875</v>
+      </c>
+      <c r="K8" s="0">
         <v>5.9000000953674316</v>
       </c>
-      <c r="K8" s="0">
+      <c r="L8" s="0">
         <v>6</v>
       </c>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0">
-        <v>1</v>
-      </c>
+      <c r="M8" s="0"/>
       <c r="N8" s="0">
-        <v>1</v>
+        <v>75169.828125</v>
       </c>
       <c r="O8" s="0">
         <v>1</v>
@@ -1072,24 +1238,48 @@
       <c r="Q8" s="0">
         <v>1</v>
       </c>
-      <c r="R8" s="0"/>
+      <c r="R8" s="0">
+        <v>1</v>
+      </c>
       <c r="S8" s="0">
         <v>1</v>
       </c>
-      <c r="T8" s="0">
-        <v>1</v>
-      </c>
-      <c r="U8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0">
+        <v>1</v>
+      </c>
       <c r="V8" s="0">
-        <v>0.54000002145767212</v>
+        <v>75169.828125</v>
       </c>
       <c r="W8" s="0">
-        <v>1</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="X8" s="0">
-        <v>0.62000000476837158</v>
-      </c>
-      <c r="Y8" t="s">
+        <v>52618.87890625</v>
+      </c>
+      <c r="Y8" s="0">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>22550.94921875</v>
+      </c>
+      <c r="AA8" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0">
+        <v>52618.87890625</v>
+      </c>
+      <c r="AD8" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="0">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1098,39 +1288,41 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0">
-        <v>146067.421875</v>
+        <v>68337.078125</v>
       </c>
       <c r="D9" s="0">
-        <v>0.47999998927116394</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43739</v>
+        <v>69636.2421875</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1.0199999809265137</v>
       </c>
       <c r="F9" s="1">
-        <v>43830</v>
+        <v>43101</v>
       </c>
       <c r="G9" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H9" s="0">
-        <v>2.9900000095367432</v>
+        <v>43465</v>
+      </c>
+      <c r="H9" s="1">
+        <v>43465</v>
       </c>
       <c r="I9" s="0">
-        <v>23252.15234375</v>
-      </c>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
+        <v>11.970000267028809</v>
+      </c>
+      <c r="J9" s="0">
+        <v>5817.56396484375</v>
+      </c>
+      <c r="K9" s="0">
+        <v>5.9000000953674316</v>
+      </c>
       <c r="L9" s="0">
-        <v>9</v>
-      </c>
-      <c r="M9" s="0">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M9" s="0"/>
       <c r="N9" s="0">
-        <v>2</v>
+        <v>69229.015625</v>
       </c>
       <c r="O9" s="0">
         <v>1</v>
@@ -1141,27 +1333,49 @@
       <c r="Q9" s="0">
         <v>1</v>
       </c>
-      <c r="R9" s="0"/>
+      <c r="R9" s="0">
+        <v>1</v>
+      </c>
       <c r="S9" s="0">
         <v>1</v>
       </c>
-      <c r="T9" s="0">
-        <v>1</v>
-      </c>
+      <c r="T9" s="0"/>
       <c r="U9" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="0">
-        <v>0.76999998092651367</v>
+        <v>69229.015625</v>
       </c>
       <c r="W9" s="0">
         <v>1</v>
       </c>
       <c r="X9" s="0">
-        <v>0.81999999284744263</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>149</v>
+        <v>69229.0234375</v>
+      </c>
+      <c r="Y9" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="0">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0">
+        <v>69229.0234375</v>
+      </c>
+      <c r="AD9" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="0">
+        <v>0.93999999761581421</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10">
@@ -1169,41 +1383,41 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" s="0">
-        <v>76586</v>
+        <v>55397</v>
       </c>
       <c r="D10" s="0">
+        <v>57158.8046875</v>
+      </c>
+      <c r="E10" s="0">
         <v>1.0299999713897705</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>43466</v>
-      </c>
-      <c r="F10" s="1">
-        <v>43830</v>
       </c>
       <c r="G10" s="1">
         <v>43830</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10" s="1">
+        <v>43830</v>
+      </c>
+      <c r="I10" s="0">
         <v>11.970000267028809</v>
       </c>
-      <c r="I10" s="0">
-        <v>6601.64453125</v>
-      </c>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0">
+      <c r="J10" s="0">
+        <v>4775.17138671875</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0">
         <v>5.9000000953674316</v>
       </c>
-      <c r="L10" s="0">
+      <c r="M10" s="0">
         <v>6</v>
       </c>
-      <c r="M10" s="0">
-        <v>1</v>
-      </c>
       <c r="N10" s="0">
-        <v>1</v>
+        <v>56824.5390625</v>
       </c>
       <c r="O10" s="0">
         <v>1</v>
@@ -1214,26 +1428,48 @@
       <c r="Q10" s="0">
         <v>1</v>
       </c>
-      <c r="R10" s="0"/>
+      <c r="R10" s="0">
+        <v>1</v>
+      </c>
       <c r="S10" s="0">
         <v>1</v>
       </c>
-      <c r="T10" s="0">
-        <v>1</v>
-      </c>
+      <c r="T10" s="0"/>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="0">
-        <v>1</v>
+        <v>56824.5390625</v>
       </c>
       <c r="W10" s="0">
-        <v>1</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="X10" s="0">
-        <v>0.96999996900558472</v>
-      </c>
-      <c r="Y10" t="s">
+        <v>45459.62890625</v>
+      </c>
+      <c r="Y10" s="0">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="Z10" s="0">
+        <v>11364.908203125</v>
+      </c>
+      <c r="AA10" s="0">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0">
+        <v>45459.62890625</v>
+      </c>
+      <c r="AD10" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="0">
+        <v>0.41999998688697815</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1242,41 +1478,41 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0">
-        <v>75612</v>
+        <v>109710</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43101</v>
+        <v>113199.140625</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1.0299999713897705</v>
       </c>
       <c r="F11" s="1">
-        <v>43465</v>
+        <v>43466</v>
       </c>
       <c r="G11" s="1">
-        <v>43465</v>
-      </c>
-      <c r="H11" s="0">
+        <v>43830</v>
+      </c>
+      <c r="H11" s="1">
+        <v>43830</v>
+      </c>
+      <c r="I11" s="0">
         <v>11.970000267028809</v>
       </c>
-      <c r="I11" s="0">
-        <v>6316.7919921875</v>
-      </c>
       <c r="J11" s="0">
+        <v>9456.9033203125</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0">
         <v>5.9000000953674316</v>
       </c>
-      <c r="K11" s="0">
+      <c r="M11" s="0">
         <v>6</v>
       </c>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0">
-        <v>1</v>
-      </c>
       <c r="N11" s="0">
-        <v>1</v>
+        <v>112537.15625</v>
       </c>
       <c r="O11" s="0">
         <v>1</v>
@@ -1287,27 +1523,49 @@
       <c r="Q11" s="0">
         <v>1</v>
       </c>
-      <c r="R11" s="0"/>
+      <c r="R11" s="0">
+        <v>1</v>
+      </c>
       <c r="S11" s="0">
         <v>1</v>
       </c>
-      <c r="T11" s="0">
-        <v>0.69999998807907104</v>
-      </c>
+      <c r="T11" s="0"/>
       <c r="U11" s="0">
-        <v>0.30000001192092896</v>
+        <v>1</v>
       </c>
       <c r="V11" s="0">
-        <v>1</v>
+        <v>112537.15625</v>
       </c>
       <c r="W11" s="0">
-        <v>1</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="X11" s="0">
-        <v>0.73000001907348633</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>149</v>
+        <v>90029.7265625</v>
+      </c>
+      <c r="Y11" s="0">
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="Z11" s="0">
+        <v>22507.431640625</v>
+      </c>
+      <c r="AA11" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0">
+        <v>90029.7265625</v>
+      </c>
+      <c r="AD11" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="0">
+        <v>0.88999998569488525</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12">
@@ -1315,71 +1573,99 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0">
-        <v>68337.078125</v>
+        <v>3771996.75</v>
       </c>
       <c r="D12" s="0">
-        <v>1.0199999809265137</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43101</v>
+        <v>576.9552001953125</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>43465</v>
+        <v>43194</v>
       </c>
       <c r="G12" s="1">
-        <v>43465</v>
-      </c>
-      <c r="H12" s="0">
-        <v>11.970000267028809</v>
+        <v>44196</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44196</v>
       </c>
       <c r="I12" s="0">
-        <v>5817.56396484375</v>
+        <v>32.939998626708984</v>
       </c>
       <c r="J12" s="0">
-        <v>5.9000000953674316</v>
+        <v>17.515336990356445</v>
       </c>
       <c r="K12" s="0">
-        <v>6</v>
-      </c>
-      <c r="L12" s="0"/>
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="L12" s="0">
+        <v>12</v>
+      </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>471.16256713867187</v>
       </c>
       <c r="O12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="0">
-        <v>1</v>
-      </c>
-      <c r="R12" s="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="R12" s="0">
+        <v>0.15000000596046448</v>
+      </c>
       <c r="S12" s="0">
-        <v>1</v>
+        <v>0.11250000447034836</v>
       </c>
       <c r="T12" s="0">
-        <v>1</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U12" s="0">
-        <v>0</v>
+        <v>0.16250000894069672</v>
       </c>
       <c r="V12" s="0">
-        <v>0.89999997615814209</v>
+        <v>76.563919067382813</v>
       </c>
       <c r="W12" s="0">
-        <v>1</v>
+        <v>0.40999999642372131</v>
       </c>
       <c r="X12" s="0">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="Y12" t="s">
+        <v>31.389999389648438</v>
+      </c>
+      <c r="Y12" s="0">
+        <v>0.40999999642372131</v>
+      </c>
+      <c r="Z12" s="0">
+        <v>31.391206741333008</v>
+      </c>
+      <c r="AA12" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="0">
+        <v>9.6584606170654297</v>
+      </c>
+      <c r="AC12" s="0">
+        <v>21.731536865234375</v>
+      </c>
+      <c r="AD12" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1388,72 +1674,96 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0">
-        <v>55397</v>
+        <v>390042.0625</v>
       </c>
       <c r="D13" s="0">
-        <v>1.0299999713897705</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43466</v>
+        <v>181947.6875</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.4699999988079071</v>
       </c>
       <c r="F13" s="1">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="G13" s="1">
-        <v>43830</v>
-      </c>
-      <c r="H13" s="0">
-        <v>11.970000267028809</v>
+        <v>44196</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44196</v>
       </c>
       <c r="I13" s="0">
-        <v>4775.17138671875</v>
-      </c>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="L13" s="0">
+        <v>12</v>
+      </c>
+      <c r="J13" s="0">
+        <v>15162.3076171875</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0">
         <v>6</v>
       </c>
-      <c r="M13" s="0">
-        <v>1</v>
-      </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>90973.84375</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="0">
         <v>1</v>
       </c>
-      <c r="R13" s="0"/>
+      <c r="R13" s="0">
+        <v>0.94999998807907104</v>
+      </c>
       <c r="S13" s="0">
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="T13" s="0">
-        <v>0.80000001192092896</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U13" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="V13" s="0">
-        <v>0.89999997615814209</v>
+        <v>90973.84375</v>
       </c>
       <c r="W13" s="0">
-        <v>1</v>
+        <v>0.47999998927116394</v>
       </c>
       <c r="X13" s="0">
-        <v>0.41999998688697815</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>149</v>
+        <v>43667.44140625</v>
+      </c>
+      <c r="Y13" s="0">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="0">
+        <v>90973.84375</v>
+      </c>
+      <c r="AA13" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="0">
+        <v>2183.3720703125</v>
+      </c>
+      <c r="AC13" s="0">
+        <v>41484.0703125</v>
+      </c>
+      <c r="AD13" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="14">
@@ -1461,41 +1771,35 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="0">
-        <v>109710</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C14" s="0"/>
       <c r="D14" s="0">
-        <v>1.0299999713897705</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43466</v>
-      </c>
+        <v>694.92352294921875</v>
+      </c>
+      <c r="E14" s="0"/>
       <c r="F14" s="1">
-        <v>43830</v>
+        <v>43739</v>
       </c>
       <c r="G14" s="1">
-        <v>43830</v>
-      </c>
-      <c r="H14" s="0">
-        <v>11.970000267028809</v>
+        <v>44834</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44834</v>
       </c>
       <c r="I14" s="0">
-        <v>9456.9033203125</v>
-      </c>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="L14" s="0">
-        <v>6</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J14" s="0">
+        <v>19.303430557250977</v>
+      </c>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N14" s="0">
-        <v>1</v>
+        <v>173.73088073730469</v>
       </c>
       <c r="O14" s="0">
         <v>1</v>
@@ -1504,28 +1808,50 @@
         <v>1</v>
       </c>
       <c r="Q14" s="0">
-        <v>1</v>
-      </c>
-      <c r="R14" s="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="R14" s="0">
+        <v>0.94999998807907104</v>
+      </c>
       <c r="S14" s="0">
-        <v>1</v>
+        <v>0.71249997615814209</v>
       </c>
       <c r="T14" s="0">
-        <v>0.80000001192092896</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U14" s="0">
-        <v>0.20000000298023224</v>
+        <v>0.76249998807907104</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>132.46978759765625</v>
       </c>
       <c r="W14" s="0">
-        <v>1</v>
+        <v>0.34000000357627869</v>
       </c>
       <c r="X14" s="0">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="Y14" t="s">
+        <v>45.040000915527344</v>
+      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>2.9534428119659424</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>42.086559295654297</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1534,75 +1860,99 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0">
-        <v>3771996.75</v>
+        <v>39577836</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43194</v>
+        <v>16693989</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.41999998688697815</v>
       </c>
       <c r="F15" s="1">
-        <v>44196</v>
+        <v>43101</v>
       </c>
       <c r="G15" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H15" s="0">
-        <v>32.939998626708984</v>
+        <v>44043</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44743</v>
       </c>
       <c r="I15" s="0">
-        <v>17.515336990356445</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="J15" s="0">
-        <v>2.9000000953674316</v>
+        <v>539037.4375</v>
       </c>
       <c r="K15" s="0">
-        <v>12</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="L15" s="0">
         <v>12</v>
       </c>
       <c r="M15" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N15" s="0">
-        <v>3</v>
+        <v>16117219</v>
       </c>
       <c r="O15" s="0">
-        <v>0.75</v>
+        <v>6</v>
       </c>
       <c r="P15" s="0">
-        <v>0.15000000596046448</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.11250000447034836</v>
+        <v>0.5</v>
       </c>
       <c r="R15" s="0">
-        <v>0.05000000074505806</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="S15" s="0">
-        <v>0.16250000894069672</v>
+        <v>0.077777773141860962</v>
       </c>
       <c r="T15" s="0">
-        <v>0.40999999642372131</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="U15" s="0">
-        <v>0.40999999642372131</v>
+        <v>0.37777778506278992</v>
       </c>
       <c r="V15" s="0">
-        <v>1</v>
+        <v>6088727.5</v>
       </c>
       <c r="W15" s="0">
-        <v>1</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="X15" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="s">
+        <v>608872.75</v>
+      </c>
+      <c r="Y15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="0">
+        <v>483516.59375</v>
+      </c>
+      <c r="AC15" s="0">
+        <v>125356.140625</v>
+      </c>
+      <c r="AD15" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1611,72 +1961,96 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0">
-        <v>390042.0625</v>
+        <v>1696972</v>
       </c>
       <c r="D16" s="0">
-        <v>0.4699999988079071</v>
-      </c>
-      <c r="E16" s="1">
-        <v>43831</v>
+        <v>678789</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.40000000596046448</v>
       </c>
       <c r="F16" s="1">
-        <v>44196</v>
+        <v>43739</v>
       </c>
       <c r="G16" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H16" s="0">
-        <v>12</v>
+        <v>44071</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45199</v>
       </c>
       <c r="I16" s="0">
-        <v>15162.3076171875</v>
-      </c>
-      <c r="J16" s="0"/>
+        <v>10.920000076293945</v>
+      </c>
+      <c r="J16" s="0">
+        <v>62160.1640625</v>
+      </c>
       <c r="K16" s="0"/>
-      <c r="L16" s="0">
-        <v>6</v>
-      </c>
+      <c r="L16" s="0"/>
       <c r="M16" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N16" s="0">
-        <v>2</v>
+        <v>559441.5</v>
       </c>
       <c r="O16" s="0">
         <v>1</v>
       </c>
       <c r="P16" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.94999998807907104</v>
+        <v>0.5</v>
       </c>
       <c r="R16" s="0">
-        <v>0.05000000074505806</v>
+        <v>1</v>
       </c>
       <c r="S16" s="0">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T16" s="0">
-        <v>0.47999998927116394</v>
+        <v>0</v>
       </c>
       <c r="U16" s="0">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V16" s="0">
-        <v>1</v>
+        <v>279720.75</v>
       </c>
       <c r="W16" s="0">
-        <v>1</v>
+        <v>0.090000003576278687</v>
       </c>
       <c r="X16" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>147</v>
+        <v>25174.869140625</v>
+      </c>
+      <c r="Y16" s="0">
+        <v>0.059999998658895493</v>
+      </c>
+      <c r="Z16" s="0">
+        <v>16783.244140625</v>
+      </c>
+      <c r="AA16" s="0">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="AB16" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="0">
+        <v>25174.869140625</v>
+      </c>
+      <c r="AD16" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="0">
+        <v>0.93999999761581421</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -1684,66 +2058,92 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="1">
-        <v>43739</v>
+        <v>71</v>
+      </c>
+      <c r="C17" s="0">
+        <v>2248155</v>
+      </c>
+      <c r="D17" s="0">
+        <v>230910</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.10000000149011612</v>
       </c>
       <c r="F17" s="1">
-        <v>44834</v>
+        <v>43647</v>
       </c>
       <c r="G17" s="1">
-        <v>44834</v>
-      </c>
-      <c r="H17" s="0">
-        <v>36</v>
+        <v>44042</v>
+      </c>
+      <c r="H17" s="1">
+        <v>46934</v>
       </c>
       <c r="I17" s="0">
-        <v>19.303430557250977</v>
-      </c>
-      <c r="J17" s="0"/>
+        <v>12.989999771118164</v>
+      </c>
+      <c r="J17" s="0">
+        <v>17775.982421875</v>
+      </c>
       <c r="K17" s="0"/>
-      <c r="L17" s="0">
-        <v>9</v>
-      </c>
+      <c r="L17" s="0"/>
       <c r="M17" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N17" s="0">
-        <v>1</v>
+        <v>213311.78125</v>
       </c>
       <c r="O17" s="0">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P17" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.71249997615814209</v>
+        <v>0.5</v>
       </c>
       <c r="R17" s="0">
-        <v>0.05000000074505806</v>
+        <v>1</v>
       </c>
       <c r="S17" s="0">
-        <v>0.76249998807907104</v>
+        <v>0.5</v>
       </c>
       <c r="T17" s="0">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="U17" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="0">
+        <v>0.5</v>
+      </c>
       <c r="V17" s="0">
-        <v>1</v>
+        <v>106655.890625</v>
       </c>
       <c r="W17" s="0">
-        <v>1</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="X17" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>150</v>
+        <v>15998.3798828125</v>
+      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="0">
+        <v>15998.3798828125</v>
+      </c>
+      <c r="AD17" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="18">
@@ -1751,31 +2151,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C18" s="0">
-        <v>39577836</v>
+        <v>45618976</v>
       </c>
       <c r="D18" s="0">
-        <v>0.41999998688697815</v>
-      </c>
-      <c r="E18" s="1">
-        <v>43101</v>
+        <v>38554740</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.85000002384185791</v>
       </c>
       <c r="F18" s="1">
-        <v>44043</v>
+        <v>42101</v>
       </c>
       <c r="G18" s="1">
-        <v>44743</v>
-      </c>
-      <c r="H18" s="0">
-        <v>30.969999313354492</v>
+        <v>44012</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44292</v>
       </c>
       <c r="I18" s="0">
-        <v>539037.4375</v>
+        <v>62.830001831054687</v>
       </c>
       <c r="J18" s="0">
-        <v>5.9000000953674316</v>
+        <v>613635.8125</v>
       </c>
       <c r="K18" s="0">
         <v>12</v>
@@ -1784,42 +2184,66 @@
         <v>12</v>
       </c>
       <c r="M18" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N18" s="0">
-        <v>27</v>
+        <v>22090890</v>
       </c>
       <c r="O18" s="0">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P18" s="0">
-        <v>0.69999998807907104</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.077777773141860962</v>
+        <v>0.25</v>
       </c>
       <c r="R18" s="0">
-        <v>0.30000001192092896</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="S18" s="0">
-        <v>0.37777778506278992</v>
+        <v>0.014825581572949886</v>
       </c>
       <c r="T18" s="0">
-        <v>0.10000000149011612</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="U18" s="0">
-        <v>0</v>
+        <v>0.16482558846473694</v>
       </c>
       <c r="V18" s="0">
-        <v>1</v>
+        <v>3641144</v>
       </c>
       <c r="W18" s="0">
-        <v>1</v>
+        <v>0.070000000298023224</v>
       </c>
       <c r="X18" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="s">
+        <v>254880.078125</v>
+      </c>
+      <c r="Y18" s="0">
+        <v>0.93000000715255737</v>
+      </c>
+      <c r="Z18" s="0">
+        <v>3386264</v>
+      </c>
+      <c r="AA18" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="0">
+        <v>231954.359375</v>
+      </c>
+      <c r="AC18" s="0">
+        <v>22925.720703125</v>
+      </c>
+      <c r="AD18" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG18" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1828,71 +2252,99 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0">
-        <v>1696972</v>
+        <v>4407792</v>
       </c>
       <c r="D19" s="0">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="E19" s="1">
-        <v>43739</v>
+        <v>2515064</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.56999999284744263</v>
       </c>
       <c r="F19" s="1">
-        <v>44071</v>
+        <v>43070</v>
       </c>
       <c r="G19" s="1">
-        <v>45199</v>
-      </c>
-      <c r="H19" s="0">
-        <v>10.920000076293945</v>
+        <v>44043</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44165</v>
       </c>
       <c r="I19" s="0">
-        <v>62160.1640625</v>
-      </c>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
+        <v>31.989999771118164</v>
+      </c>
+      <c r="J19" s="0">
+        <v>78620.3203125</v>
+      </c>
+      <c r="K19" s="0">
+        <v>6.9000000953674316</v>
+      </c>
       <c r="L19" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M19" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N19" s="0">
-        <v>1</v>
+        <v>2429368</v>
       </c>
       <c r="O19" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P19" s="0">
         <v>1</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T19" s="0">
-        <v>0.090000003576278687</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.059999998658895493</v>
+        <v>1</v>
       </c>
       <c r="V19" s="0">
-        <v>0.99999994039535522</v>
+        <v>2429368</v>
       </c>
       <c r="W19" s="0">
         <v>1</v>
       </c>
       <c r="X19" s="0">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="Y19" t="s">
+        <v>2429368</v>
+      </c>
+      <c r="Y19" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="0">
+        <v>2429368</v>
+      </c>
+      <c r="AD19" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG19" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1901,69 +2353,99 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0">
-        <v>2248155</v>
+        <v>3414774.25</v>
       </c>
       <c r="D20" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="E20" s="1">
-        <v>43647</v>
+        <v>3391599</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.99000000953674316</v>
       </c>
       <c r="F20" s="1">
-        <v>44042</v>
+        <v>42612</v>
       </c>
       <c r="G20" s="1">
-        <v>46934</v>
-      </c>
-      <c r="H20" s="0">
-        <v>12.989999771118164</v>
+        <v>44043</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44073</v>
       </c>
       <c r="I20" s="0">
-        <v>17775.982421875</v>
-      </c>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
+        <v>47.049999237060547</v>
+      </c>
+      <c r="J20" s="0">
+        <v>72084.9921875</v>
+      </c>
+      <c r="K20" s="0">
+        <v>12</v>
+      </c>
       <c r="L20" s="0">
         <v>12</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>2595059.5</v>
       </c>
       <c r="O20" s="0">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="P20" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="S20" s="0">
-        <v>0.5</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="T20" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="U20" s="0"/>
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="U20" s="0">
+        <v>1</v>
+      </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>2595059.5</v>
       </c>
       <c r="W20" s="0">
-        <v>1</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="X20" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="s">
+        <v>1557035.75</v>
+      </c>
+      <c r="Y20" s="0">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="Z20" s="0">
+        <v>1038023.8125</v>
+      </c>
+      <c r="AA20" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="0">
+        <v>31140.71484375</v>
+      </c>
+      <c r="AC20" s="0">
+        <v>1525895.125</v>
+      </c>
+      <c r="AD20" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="0">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG20" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1972,76 +2454,100 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0">
-        <v>45618976</v>
+        <v>16922608</v>
       </c>
       <c r="D21" s="0">
-        <v>0.85000002384185791</v>
-      </c>
-      <c r="E21" s="1">
-        <v>42101</v>
+        <v>9157010</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.54000002145767212</v>
       </c>
       <c r="F21" s="1">
-        <v>44012</v>
+        <v>43132</v>
       </c>
       <c r="G21" s="1">
-        <v>44292</v>
-      </c>
-      <c r="H21" s="0">
-        <v>62.830001831054687</v>
+        <v>44043</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44196</v>
       </c>
       <c r="I21" s="0">
-        <v>613635.8125</v>
+        <v>29.950000762939453</v>
       </c>
       <c r="J21" s="0">
-        <v>12</v>
+        <v>305743.21875</v>
       </c>
       <c r="K21" s="0">
-        <v>12</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="L21" s="0">
         <v>12</v>
       </c>
       <c r="M21" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N21" s="0">
-        <v>43</v>
+        <v>8835978</v>
       </c>
       <c r="O21" s="0">
-        <v>0.25</v>
+        <v>6</v>
       </c>
       <c r="P21" s="0">
-        <v>0.85000002384185791</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.014825581572949886</v>
+        <v>1</v>
       </c>
       <c r="R21" s="0">
-        <v>0.15000000596046448</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="S21" s="0">
-        <v>0.16482558846473694</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="T21" s="0">
-        <v>0.070000000298023224</v>
+        <v>0.0099999997764825821</v>
       </c>
       <c r="U21" s="0">
-        <v>0.93000000715255737</v>
+        <v>1</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>8835978</v>
       </c>
       <c r="W21" s="0">
         <v>1</v>
       </c>
       <c r="X21" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>146</v>
+        <v>8835978</v>
+      </c>
+      <c r="Y21" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="0">
+        <v>88359.78125</v>
+      </c>
+      <c r="AC21" s="0">
+        <v>8747618</v>
+      </c>
+      <c r="AD21" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22">
@@ -2049,75 +2555,97 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="0">
-        <v>4407792</v>
+        <v>21194416</v>
       </c>
       <c r="D22" s="0">
-        <v>0.56999999284744263</v>
-      </c>
-      <c r="E22" s="1">
-        <v>43070</v>
+        <v>13918054</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.6600000262260437</v>
       </c>
       <c r="F22" s="1">
+        <v>43344</v>
+      </c>
+      <c r="G22" s="1">
         <v>44043</v>
       </c>
-      <c r="G22" s="1">
-        <v>44165</v>
-      </c>
-      <c r="H22" s="0">
-        <v>31.989999771118164</v>
+      <c r="H22" s="1">
+        <v>44561</v>
       </c>
       <c r="I22" s="0">
-        <v>78620.3203125</v>
+        <v>22.979999542236328</v>
       </c>
       <c r="J22" s="0">
-        <v>6.9000000953674316</v>
-      </c>
-      <c r="K22" s="0">
+        <v>605659.4375</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0">
+        <v>9.8999996185302734</v>
+      </c>
+      <c r="M22" s="0">
         <v>12</v>
       </c>
-      <c r="L22" s="0">
-        <v>12</v>
-      </c>
-      <c r="M22" s="0">
-        <v>1</v>
-      </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>13263941</v>
       </c>
       <c r="O22" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P22" s="0">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="0">
         <v>1</v>
       </c>
       <c r="R22" s="0">
-        <v>0</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="S22" s="0">
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="0">
-        <v>1</v>
+        <v>13263941</v>
       </c>
       <c r="W22" s="0">
         <v>1</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="s">
+        <v>13263941</v>
+      </c>
+      <c r="Y22" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="0">
+        <v>663197.0625</v>
+      </c>
+      <c r="AC22" s="0">
+        <v>12600744</v>
+      </c>
+      <c r="AD22" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="0">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG22" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2126,76 +2654,96 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="0">
-        <v>3414774.25</v>
+        <v>1123595.5</v>
       </c>
       <c r="D23" s="0">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="E23" s="1">
-        <v>42612</v>
+        <v>56179.7734375</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.05000000074505806</v>
       </c>
       <c r="F23" s="1">
-        <v>44043</v>
+        <v>43922</v>
       </c>
       <c r="G23" s="1">
-        <v>44073</v>
-      </c>
-      <c r="H23" s="0">
-        <v>47.049999237060547</v>
+        <v>44012</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44286</v>
       </c>
       <c r="I23" s="0">
-        <v>72084.9921875</v>
+        <v>2.9600000381469727</v>
       </c>
       <c r="J23" s="0">
-        <v>12</v>
-      </c>
-      <c r="K23" s="0">
-        <v>12</v>
-      </c>
-      <c r="L23" s="0">
-        <v>12</v>
-      </c>
+        <v>18979.65234375</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
       <c r="M23" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="0">
-        <v>4</v>
+        <v>56938.95703125</v>
       </c>
       <c r="O23" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23" s="0">
-        <v>0.98000001907348633</v>
+        <v>3</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.98000001907348633</v>
+        <v>1</v>
       </c>
       <c r="R23" s="0">
-        <v>0.019999999552965164</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="S23" s="0">
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="T23" s="0">
-        <v>0.60000002384185791</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U23" s="0">
-        <v>0.40000000596046448</v>
+        <v>1</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>56938.95703125</v>
       </c>
       <c r="W23" s="0">
         <v>1</v>
       </c>
       <c r="X23" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>149</v>
+        <v>56938.9609375</v>
+      </c>
+      <c r="Y23" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="0">
+        <v>2846.947998046875</v>
+      </c>
+      <c r="AC23" s="0">
+        <v>54092.01171875</v>
+      </c>
+      <c r="AD23" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24">
@@ -2203,76 +2751,98 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" s="0">
-        <v>16922608</v>
+        <v>105436.859375</v>
       </c>
       <c r="D24" s="0">
-        <v>0.54000002145767212</v>
-      </c>
-      <c r="E24" s="1">
-        <v>43132</v>
+        <v>105436.859375</v>
+      </c>
+      <c r="E24" s="0">
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>44043</v>
+        <v>43466</v>
       </c>
       <c r="G24" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H24" s="0">
-        <v>29.950000762939453</v>
+        <v>43921</v>
+      </c>
+      <c r="H24" s="1">
+        <v>43830</v>
       </c>
       <c r="I24" s="0">
-        <v>305743.21875</v>
+        <v>14.960000038146973</v>
       </c>
       <c r="J24" s="0">
-        <v>4.9000000953674316</v>
-      </c>
-      <c r="K24" s="0">
-        <v>12</v>
-      </c>
+        <v>7047.91845703125</v>
+      </c>
+      <c r="K24" s="0"/>
       <c r="L24" s="0">
-        <v>12</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="M24" s="0">
         <v>6</v>
       </c>
       <c r="N24" s="0">
-        <v>6</v>
+        <v>83870.234375</v>
       </c>
       <c r="O24" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P24" s="0">
-        <v>0.99000000953674316</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.99000000953674316</v>
+        <v>1</v>
       </c>
       <c r="R24" s="0">
-        <v>0.0099999997764825821</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="S24" s="0">
-        <v>1</v>
+        <v>1.4249999523162842</v>
       </c>
       <c r="T24" s="0">
-        <v>1</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U24" s="0">
-        <v>0</v>
+        <v>1.4749999046325684</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>123708.5859375</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="X24" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>149</v>
+        <v>43298</v>
+      </c>
+      <c r="Y24" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="0">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="AB24" s="0">
+        <v>1467.7288818359375</v>
+      </c>
+      <c r="AC24" s="0">
+        <v>41830.2734375</v>
+      </c>
+      <c r="AD24" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25">
@@ -2280,74 +2850,96 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="0">
-        <v>21194416</v>
+        <v>1499965</v>
       </c>
       <c r="D25" s="0">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="E25" s="1">
-        <v>43344</v>
+        <v>1499965</v>
+      </c>
+      <c r="E25" s="0">
+        <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>44043</v>
+        <v>43358</v>
       </c>
       <c r="G25" s="1">
-        <v>44561</v>
-      </c>
-      <c r="H25" s="0">
-        <v>22.979999542236328</v>
+        <v>43418</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43418</v>
       </c>
       <c r="I25" s="0">
-        <v>605659.4375</v>
-      </c>
-      <c r="J25" s="0"/>
-      <c r="K25" s="0">
-        <v>9.8999996185302734</v>
-      </c>
+        <v>1.9700000286102295</v>
+      </c>
+      <c r="J25" s="0">
+        <v>761403.5625</v>
+      </c>
+      <c r="K25" s="0"/>
       <c r="L25" s="0">
-        <v>12</v>
-      </c>
-      <c r="M25" s="0">
-        <v>10</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="M25" s="0"/>
       <c r="N25" s="0">
-        <v>10</v>
+        <v>3426316</v>
       </c>
       <c r="O25" s="0">
         <v>1</v>
       </c>
       <c r="P25" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="R25" s="0">
-        <v>0.05000000074505806</v>
+        <v>1</v>
       </c>
       <c r="S25" s="0">
         <v>1</v>
       </c>
       <c r="T25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="0">
-        <v>1</v>
+        <v>3426316</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.15999999642372131</v>
       </c>
       <c r="X25" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="Y25" t="s">
+        <v>548210.5625</v>
+      </c>
+      <c r="Y25" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="0">
+        <v>548210.5625</v>
+      </c>
+      <c r="AD25" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="s">
         <v>147</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="26">
@@ -2355,72 +2947,96 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="0">
-        <v>1123595.5</v>
+        <v>156369.65625</v>
       </c>
       <c r="D26" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="E26" s="1">
-        <v>43922</v>
+        <v>148283.140625</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.94999998807907104</v>
       </c>
       <c r="F26" s="1">
-        <v>44012</v>
+        <v>42826</v>
       </c>
       <c r="G26" s="1">
-        <v>44286</v>
-      </c>
-      <c r="H26" s="0">
-        <v>2.9600000381469727</v>
+        <v>43190</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43190</v>
       </c>
       <c r="I26" s="0">
-        <v>18979.65234375</v>
-      </c>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0">
-        <v>3</v>
-      </c>
-      <c r="M26" s="0">
-        <v>3</v>
-      </c>
+        <v>11.970000267028809</v>
+      </c>
+      <c r="J26" s="0">
+        <v>12387.8974609375</v>
+      </c>
+      <c r="K26" s="0">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
       <c r="N26" s="0">
-        <v>3</v>
+        <v>35924.90234375</v>
       </c>
       <c r="O26" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="0">
-        <v>0.94999998807907104</v>
+        <v>2</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="R26" s="0">
-        <v>0.05000000074505806</v>
+        <v>1</v>
       </c>
       <c r="S26" s="0">
         <v>1</v>
       </c>
       <c r="T26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="0">
-        <v>1</v>
+        <v>35924.90234375</v>
       </c>
       <c r="W26" s="0">
-        <v>1</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>149</v>
+        <v>15806.9599609375</v>
+      </c>
+      <c r="Y26" s="0">
+        <v>0.56000000238418579</v>
+      </c>
+      <c r="Z26" s="0">
+        <v>20117.9453125</v>
+      </c>
+      <c r="AA26" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="0">
+        <v>15806.9599609375</v>
+      </c>
+      <c r="AD26" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27">
@@ -2428,74 +3044,96 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C27" s="0">
-        <v>105436.859375</v>
+        <v>337078.65625</v>
       </c>
       <c r="D27" s="0">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>43466</v>
+        <v>88614.609375</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.25999999046325684</v>
       </c>
       <c r="F27" s="1">
-        <v>43921</v>
+        <v>43831</v>
       </c>
       <c r="G27" s="1">
-        <v>43830</v>
-      </c>
-      <c r="H27" s="0">
-        <v>14.960000038146973</v>
+        <v>44408</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44561</v>
       </c>
       <c r="I27" s="0">
-        <v>7047.91845703125</v>
-      </c>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="L27" s="0">
+        <v>18.969999313354492</v>
+      </c>
+      <c r="J27" s="0">
+        <v>4671.302734375</v>
+      </c>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0">
         <v>6</v>
       </c>
-      <c r="M27" s="0">
+      <c r="N27" s="0">
+        <v>28027.81640625</v>
+      </c>
+      <c r="O27" s="0">
         <v>3</v>
       </c>
-      <c r="N27" s="0">
-        <v>2</v>
-      </c>
-      <c r="O27" s="0">
-        <v>1</v>
-      </c>
       <c r="P27" s="0">
-        <v>0.94999998807907104</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="0">
-        <v>1.4249999523162842</v>
+        <v>1</v>
       </c>
       <c r="R27" s="0">
-        <v>0.05000000074505806</v>
+        <v>1</v>
       </c>
       <c r="S27" s="0">
-        <v>1.4749999046325684</v>
+        <v>1</v>
       </c>
       <c r="T27" s="0">
-        <v>0.34999999403953552</v>
+        <v>0</v>
       </c>
       <c r="U27" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="0">
-        <v>0.64999997615814209</v>
+        <v>28027.81640625</v>
       </c>
       <c r="W27" s="0">
         <v>1</v>
       </c>
       <c r="X27" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>150</v>
+        <v>28027.8203125</v>
+      </c>
+      <c r="Y27" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="0">
+        <v>28027.8203125</v>
+      </c>
+      <c r="AD27" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28">
@@ -2503,72 +3141,92 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C28" s="0">
-        <v>1499965</v>
+        <v>112359.546875</v>
       </c>
       <c r="D28" s="0">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43358</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>43418</v>
+        <v>44044</v>
       </c>
       <c r="G28" s="1">
-        <v>43418</v>
-      </c>
-      <c r="H28" s="0">
-        <v>1.9700000286102295</v>
+        <v>44044</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44196</v>
       </c>
       <c r="I28" s="0">
-        <v>761403.5625</v>
+        <v>0</v>
       </c>
       <c r="J28" s="0"/>
-      <c r="K28" s="0">
-        <v>4.5</v>
-      </c>
+      <c r="K28" s="0"/>
       <c r="L28" s="0"/>
-      <c r="M28" s="0">
-        <v>1</v>
-      </c>
+      <c r="M28" s="0"/>
       <c r="N28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="0">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R28" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="0">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="T28" s="0">
-        <v>0.15999999642372131</v>
+        <v>0</v>
       </c>
       <c r="U28" s="0">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="0">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -2576,72 +3234,96 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29" s="0">
-        <v>156369.65625</v>
+        <v>12246492</v>
       </c>
       <c r="D29" s="0">
-        <v>0.94999998807907104</v>
-      </c>
-      <c r="E29" s="1">
-        <v>42826</v>
+        <v>404240</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.029999999329447746</v>
       </c>
       <c r="F29" s="1">
-        <v>43190</v>
+        <v>43831</v>
       </c>
       <c r="G29" s="1">
-        <v>43190</v>
-      </c>
-      <c r="H29" s="0">
-        <v>11.970000267028809</v>
+        <v>44012</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45657</v>
       </c>
       <c r="I29" s="0">
-        <v>12387.8974609375</v>
+        <v>5.9499998092651367</v>
       </c>
       <c r="J29" s="0">
-        <v>2.9000000953674316</v>
+        <v>67939.5</v>
       </c>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0">
+        <v>6</v>
+      </c>
+      <c r="N29" s="0">
+        <v>407637</v>
+      </c>
+      <c r="O29" s="0">
         <v>2</v>
       </c>
-      <c r="N29" s="0">
+      <c r="P29" s="0">
         <v>2</v>
       </c>
-      <c r="O29" s="0">
-        <v>1</v>
-      </c>
-      <c r="P29" s="0">
-        <v>1</v>
-      </c>
       <c r="Q29" s="0">
         <v>1</v>
       </c>
       <c r="R29" s="0">
-        <v>0</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="S29" s="0">
-        <v>1</v>
+        <v>0.20000000298023224</v>
       </c>
       <c r="T29" s="0">
-        <v>0.43999999761581421</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="U29" s="0">
-        <v>0.56000000238418579</v>
+        <v>1</v>
       </c>
       <c r="V29" s="0">
-        <v>1</v>
+        <v>407637</v>
       </c>
       <c r="W29" s="0">
         <v>1</v>
       </c>
       <c r="X29" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>148</v>
+        <v>407637</v>
+      </c>
+      <c r="Y29" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="0">
+        <v>326109.59375</v>
+      </c>
+      <c r="AC29" s="0">
+        <v>81527.3984375</v>
+      </c>
+      <c r="AD29" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30">
@@ -2649,72 +3331,92 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30" s="0">
-        <v>337078.65625</v>
+        <v>5505618</v>
       </c>
       <c r="D30" s="0">
-        <v>0.25999999046325684</v>
-      </c>
-      <c r="E30" s="1">
-        <v>43831</v>
+        <v>4043587</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.73000001907348633</v>
       </c>
       <c r="F30" s="1">
-        <v>44408</v>
+        <v>42552</v>
       </c>
       <c r="G30" s="1">
-        <v>44561</v>
-      </c>
-      <c r="H30" s="0">
-        <v>18.969999313354492</v>
+        <v>44012</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44195</v>
       </c>
       <c r="I30" s="0">
-        <v>4671.302734375</v>
-      </c>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
+        <v>48</v>
+      </c>
+      <c r="J30" s="0">
+        <v>84241.3984375</v>
+      </c>
+      <c r="K30" s="0">
+        <v>12</v>
+      </c>
       <c r="L30" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M30" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N30" s="0">
-        <v>3</v>
+        <v>3032690.25</v>
       </c>
       <c r="O30" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P30" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q30" s="0">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R30" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="0">
-        <v>1</v>
-      </c>
-      <c r="T30" s="0">
-        <v>1</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="T30" s="0"/>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="V30" s="0">
-        <v>1</v>
+        <v>2274517.75</v>
       </c>
       <c r="W30" s="0">
         <v>1</v>
       </c>
       <c r="X30" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>148</v>
+        <v>2274517.75</v>
+      </c>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0">
+        <v>2274517.75</v>
+      </c>
+      <c r="AD30" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31">
@@ -2722,68 +3424,90 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" s="0">
-        <v>112359.546875</v>
+        <v>2915377.5</v>
       </c>
       <c r="D31" s="0">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>44044</v>
+        <v>825354.125</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.2800000011920929</v>
       </c>
       <c r="F31" s="1">
-        <v>44044</v>
+        <v>43586</v>
       </c>
       <c r="G31" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H31" s="0">
-        <v>0</v>
-      </c>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
+        <v>44012</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44377</v>
+      </c>
+      <c r="I31" s="0">
+        <v>14.010000228881836</v>
+      </c>
+      <c r="J31" s="0">
+        <v>58911.78515625</v>
+      </c>
       <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
+      <c r="L31" s="0">
+        <v>2</v>
+      </c>
       <c r="M31" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N31" s="0">
-        <v>2</v>
+        <v>824765</v>
       </c>
       <c r="O31" s="0">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="P31" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="0">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R31" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="T31" s="0">
-        <v>0</v>
-      </c>
+        <v>0.5625</v>
+      </c>
+      <c r="T31" s="0"/>
       <c r="U31" s="0">
-        <v>1</v>
+        <v>0.5625</v>
       </c>
       <c r="V31" s="0">
-        <v>0</v>
+        <v>463930.3125</v>
       </c>
       <c r="W31" s="0">
         <v>1</v>
       </c>
       <c r="X31" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>148</v>
+        <v>463930.3125</v>
+      </c>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0">
+        <v>463930.3125</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="32">
@@ -2791,72 +3515,96 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C32" s="0">
-        <v>12246492</v>
+        <v>517451</v>
       </c>
       <c r="D32" s="0">
-        <v>0.029999999329447746</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43831</v>
+        <v>523106.1875</v>
+      </c>
+      <c r="E32" s="0">
+        <v>1.0099999904632568</v>
       </c>
       <c r="F32" s="1">
-        <v>44012</v>
+        <v>43922</v>
       </c>
       <c r="G32" s="1">
-        <v>45657</v>
-      </c>
-      <c r="H32" s="0">
-        <v>5.9499998092651367</v>
+        <v>44064</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44196</v>
       </c>
       <c r="I32" s="0">
-        <v>67939.5</v>
-      </c>
-      <c r="J32" s="0"/>
+        <v>4.6700000762939453</v>
+      </c>
+      <c r="J32" s="0">
+        <v>112014.171875</v>
+      </c>
       <c r="K32" s="0"/>
-      <c r="L32" s="0">
-        <v>6</v>
-      </c>
+      <c r="L32" s="0"/>
       <c r="M32" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" s="0">
-        <v>2</v>
+        <v>336042.5</v>
       </c>
       <c r="O32" s="0">
         <v>1</v>
       </c>
       <c r="P32" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="R32" s="0">
-        <v>0.80000001192092896</v>
+        <v>1</v>
       </c>
       <c r="S32" s="0">
         <v>1</v>
       </c>
       <c r="T32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="0">
-        <v>1</v>
+        <v>336042.5</v>
       </c>
       <c r="W32" s="0">
         <v>1</v>
       </c>
       <c r="X32" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>151</v>
+        <v>336042.5</v>
+      </c>
+      <c r="Y32" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="0">
+        <v>336042.5</v>
+      </c>
+      <c r="AD32" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -2864,72 +3612,100 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0">
-        <v>5505618</v>
+        <v>600494</v>
       </c>
       <c r="D33" s="0">
-        <v>0.73000001907348633</v>
-      </c>
-      <c r="E33" s="1">
-        <v>42552</v>
+        <v>599868</v>
+      </c>
+      <c r="E33" s="0">
+        <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>44012</v>
+        <v>43101</v>
       </c>
       <c r="G33" s="1">
-        <v>44195</v>
-      </c>
-      <c r="H33" s="0">
-        <v>48</v>
+        <v>44064</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44196</v>
       </c>
       <c r="I33" s="0">
-        <v>84241.3984375</v>
+        <v>31.659999847412109</v>
       </c>
       <c r="J33" s="0">
-        <v>12</v>
+        <v>18947.189453125</v>
       </c>
       <c r="K33" s="0">
-        <v>12</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="L33" s="0">
         <v>12</v>
       </c>
       <c r="M33" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N33" s="0">
-        <v>4</v>
+        <v>566521</v>
       </c>
       <c r="O33" s="0">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="P33" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="R33" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="0">
+        <v>0.80000001192092896</v>
+      </c>
       <c r="S33" s="0">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="T33" s="0">
-        <v>1</v>
-      </c>
-      <c r="U33" s="0"/>
+        <v>0.20000000298023224</v>
+      </c>
+      <c r="U33" s="0">
+        <v>0.69999998807907104</v>
+      </c>
       <c r="V33" s="0">
-        <v>1</v>
+        <v>396564.6875</v>
       </c>
       <c r="W33" s="0">
-        <v>1</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="X33" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>149</v>
+        <v>277595.28125</v>
+      </c>
+      <c r="Y33" s="0">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="Z33" s="0">
+        <v>118969.4140625</v>
+      </c>
+      <c r="AA33" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="0">
+        <v>79312.9375</v>
+      </c>
+      <c r="AC33" s="0">
+        <v>198282.34375</v>
+      </c>
+      <c r="AD33" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -2937,70 +3713,98 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="0">
-        <v>2915377.5</v>
+        <v>464000</v>
       </c>
       <c r="D34" s="0">
-        <v>0.2800000011920929</v>
-      </c>
-      <c r="E34" s="1">
-        <v>43586</v>
+        <v>464000</v>
+      </c>
+      <c r="E34" s="0">
+        <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>44012</v>
+        <v>43101</v>
       </c>
       <c r="G34" s="1">
-        <v>44377</v>
-      </c>
-      <c r="H34" s="0">
-        <v>14.010000228881836</v>
+        <v>43524</v>
+      </c>
+      <c r="H34" s="1">
+        <v>43465</v>
       </c>
       <c r="I34" s="0">
-        <v>58911.78515625</v>
-      </c>
-      <c r="J34" s="0"/>
+        <v>13.909999847412109</v>
+      </c>
+      <c r="J34" s="0">
+        <v>33357.296875</v>
+      </c>
       <c r="K34" s="0">
-        <v>2</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="L34" s="0">
-        <v>12</v>
-      </c>
-      <c r="M34" s="0">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M34" s="0"/>
       <c r="N34" s="0">
-        <v>4</v>
+        <v>396951.84375</v>
       </c>
       <c r="O34" s="0">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P34" s="0">
         <v>1</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.5625</v>
-      </c>
-      <c r="R34" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="0">
+        <v>1</v>
+      </c>
       <c r="S34" s="0">
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="T34" s="0">
-        <v>1</v>
-      </c>
-      <c r="U34" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="0">
+        <v>1</v>
+      </c>
       <c r="V34" s="0">
-        <v>1</v>
+        <v>396951.84375</v>
       </c>
       <c r="W34" s="0">
         <v>1</v>
       </c>
       <c r="X34" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>149</v>
+        <v>396951.84375</v>
+      </c>
+      <c r="Y34" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="0">
+        <v>396951.84375</v>
+      </c>
+      <c r="AD34" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35">
@@ -3008,39 +3812,41 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C35" s="0">
-        <v>517451</v>
+        <v>300000</v>
       </c>
       <c r="D35" s="0">
-        <v>1.0099999904632568</v>
-      </c>
-      <c r="E35" s="1">
-        <v>43922</v>
+        <v>300000</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>44064</v>
+        <v>43101</v>
       </c>
       <c r="G35" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H35" s="0">
-        <v>4.6700000762939453</v>
+        <v>43616</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43553</v>
       </c>
       <c r="I35" s="0">
-        <v>112014.171875</v>
-      </c>
-      <c r="J35" s="0"/>
-      <c r="K35" s="0"/>
+        <v>16.930000305175781</v>
+      </c>
+      <c r="J35" s="0">
+        <v>17720.0234375</v>
+      </c>
+      <c r="K35" s="0">
+        <v>5.9000000953674316</v>
+      </c>
       <c r="L35" s="0">
-        <v>3</v>
-      </c>
-      <c r="M35" s="0">
-        <v>1</v>
-      </c>
+        <v>8.8999996185302734</v>
+      </c>
+      <c r="M35" s="0"/>
       <c r="N35" s="0">
-        <v>1</v>
+        <v>262256.34375</v>
       </c>
       <c r="O35" s="0">
         <v>1</v>
@@ -3052,28 +3858,48 @@
         <v>1</v>
       </c>
       <c r="R35" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="0">
         <v>1</v>
       </c>
-      <c r="T35" s="0">
-        <v>1</v>
-      </c>
+      <c r="T35" s="0"/>
       <c r="U35" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="0">
-        <v>1</v>
+        <v>262256.34375</v>
       </c>
       <c r="W35" s="0">
         <v>1</v>
       </c>
       <c r="X35" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>149</v>
+        <v>262256.34375</v>
+      </c>
+      <c r="Y35" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0">
+        <v>262256.34375</v>
+      </c>
+      <c r="AD35" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="36">
@@ -3081,76 +3907,94 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C36" s="0">
-        <v>600494</v>
+        <v>600000</v>
       </c>
       <c r="D36" s="0">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
-        <v>43101</v>
+        <v>600000</v>
+      </c>
+      <c r="E36" s="0">
+        <v>1</v>
       </c>
       <c r="F36" s="1">
-        <v>44064</v>
+        <v>43633</v>
       </c>
       <c r="G36" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H36" s="0">
-        <v>31.659999847412109</v>
+        <v>44058</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44074</v>
       </c>
       <c r="I36" s="0">
-        <v>18947.189453125</v>
+        <v>13.970000267028809</v>
       </c>
       <c r="J36" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="K36" s="0">
+        <v>42949.17578125</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="M36" s="0">
         <v>12</v>
       </c>
-      <c r="L36" s="0">
-        <v>12</v>
-      </c>
-      <c r="M36" s="0">
-        <v>5</v>
-      </c>
       <c r="N36" s="0">
-        <v>8</v>
+        <v>532569.8125</v>
       </c>
       <c r="O36" s="0">
         <v>1</v>
       </c>
       <c r="P36" s="0">
-        <v>0.80000001192092896</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R36" s="0">
-        <v>0.20000000298023224</v>
+        <v>1</v>
       </c>
       <c r="S36" s="0">
-        <v>0.69999998807907104</v>
-      </c>
-      <c r="T36" s="0">
-        <v>0.69999998807907104</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T36" s="0"/>
       <c r="U36" s="0">
-        <v>0.30000001192092896</v>
+        <v>1</v>
       </c>
       <c r="V36" s="0">
-        <v>1</v>
+        <v>532569.8125</v>
       </c>
       <c r="W36" s="0">
         <v>1</v>
       </c>
       <c r="X36" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>147</v>
+        <v>532569.8125</v>
+      </c>
+      <c r="Y36" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0">
+        <v>532569.8125</v>
+      </c>
+      <c r="AD36" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="37">
@@ -3158,74 +4002,90 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="0">
-        <v>464000</v>
+        <v>230898.875</v>
       </c>
       <c r="D37" s="0">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>43101</v>
+        <v>84831.4609375</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.37000000476837158</v>
       </c>
       <c r="F37" s="1">
-        <v>43524</v>
+        <v>43405</v>
       </c>
       <c r="G37" s="1">
-        <v>43465</v>
-      </c>
-      <c r="H37" s="0">
-        <v>13.909999847412109</v>
+        <v>44064</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44530</v>
       </c>
       <c r="I37" s="0">
-        <v>33357.296875</v>
+        <v>21.670000076293945</v>
       </c>
       <c r="J37" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="K37" s="0">
-        <v>6</v>
-      </c>
-      <c r="L37" s="0"/>
+        <v>3914.69580078125</v>
+      </c>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0">
+        <v>7.9000000953674316</v>
+      </c>
       <c r="M37" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N37" s="0">
-        <v>1</v>
+        <v>77902.453125</v>
       </c>
       <c r="O37" s="0">
         <v>1</v>
       </c>
       <c r="P37" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="0">
         <v>1</v>
       </c>
       <c r="R37" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="0">
-        <v>1</v>
-      </c>
-      <c r="T37" s="0">
-        <v>1</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="T37" s="0"/>
       <c r="U37" s="0">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="V37" s="0">
-        <v>1</v>
+        <v>19475.61328125</v>
       </c>
       <c r="W37" s="0">
-        <v>1</v>
+        <v>0.059999998658895493</v>
       </c>
       <c r="X37" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>148</v>
+        <v>1168.5400390625</v>
+      </c>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0">
+        <v>0.059999998658895493</v>
+      </c>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0">
+        <v>1168.5400390625</v>
+      </c>
+      <c r="AD37" s="0">
+        <v>0.059999998658895493</v>
+      </c>
+      <c r="AE37" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="38">
@@ -3233,71 +4093,95 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" s="0">
-        <v>300000</v>
+        <v>655317</v>
       </c>
       <c r="D38" s="0">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1">
+        <v>655317</v>
+      </c>
+      <c r="E38" s="0">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
         <v>43101</v>
       </c>
-      <c r="F38" s="1">
-        <v>43616</v>
-      </c>
       <c r="G38" s="1">
-        <v>43553</v>
-      </c>
-      <c r="H38" s="0">
-        <v>16.930000305175781</v>
+        <v>44068</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44196</v>
       </c>
       <c r="I38" s="0">
-        <v>17720.0234375</v>
+        <v>31.790000915527344</v>
       </c>
       <c r="J38" s="0">
+        <v>20613.935546875</v>
+      </c>
+      <c r="K38" s="0">
         <v>5.9000000953674316</v>
       </c>
-      <c r="K38" s="0">
-        <v>8.8999996185302734</v>
-      </c>
-      <c r="L38" s="0"/>
+      <c r="L38" s="0">
+        <v>12</v>
+      </c>
       <c r="M38" s="0">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N38" s="0">
-        <v>1</v>
+        <v>616356.625</v>
       </c>
       <c r="O38" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P38" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="0">
-        <v>1</v>
-      </c>
-      <c r="R38" s="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="R38" s="0">
+        <v>1</v>
+      </c>
       <c r="S38" s="0">
-        <v>1</v>
-      </c>
-      <c r="T38" s="0">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="T38" s="0"/>
       <c r="U38" s="0">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V38" s="0">
-        <v>1</v>
+        <v>308178.3125</v>
       </c>
       <c r="W38" s="0">
         <v>1</v>
       </c>
       <c r="X38" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="s">
+        <v>308178.3125</v>
+      </c>
+      <c r="Y38" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0">
+        <v>308178.3125</v>
+      </c>
+      <c r="AD38" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG38" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3306,72 +4190,96 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" s="0">
-        <v>3265638</v>
+        <v>1012200</v>
       </c>
       <c r="D39" s="0">
-        <v>0.46000000834465027</v>
-      </c>
-      <c r="E39" s="1">
-        <v>43419</v>
+        <v>1012200</v>
+      </c>
+      <c r="E39" s="0">
+        <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>44058</v>
+        <v>43313</v>
       </c>
       <c r="G39" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H39" s="0">
-        <v>21.010000228881836</v>
+        <v>43600</v>
+      </c>
+      <c r="H39" s="1">
+        <v>43600</v>
       </c>
       <c r="I39" s="0">
-        <v>71673.109375</v>
-      </c>
-      <c r="J39" s="0"/>
-      <c r="K39" s="0">
-        <v>7.5</v>
-      </c>
+        <v>9.4399995803833008</v>
+      </c>
+      <c r="J39" s="0">
+        <v>107224.578125</v>
+      </c>
+      <c r="K39" s="0"/>
       <c r="L39" s="0">
-        <v>12</v>
-      </c>
-      <c r="M39" s="0">
-        <v>3</v>
-      </c>
+        <v>10.5</v>
+      </c>
+      <c r="M39" s="0"/>
       <c r="N39" s="0">
-        <v>3</v>
+        <v>1125858.125</v>
       </c>
       <c r="O39" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="0">
         <v>1</v>
       </c>
-      <c r="R39" s="0"/>
+      <c r="R39" s="0">
+        <v>1</v>
+      </c>
       <c r="S39" s="0">
         <v>1</v>
       </c>
       <c r="T39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="0">
-        <v>1</v>
+        <v>1125858.125</v>
       </c>
       <c r="W39" s="0">
         <v>1</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="s">
+        <v>1125858.125</v>
+      </c>
+      <c r="Y39" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="0">
+        <v>1125858.125</v>
+      </c>
+      <c r="AD39" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="s">
         <v>147</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40">
@@ -3379,71 +4287,97 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" s="0">
-        <v>600000</v>
+        <v>979461</v>
       </c>
       <c r="D40" s="0">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>43633</v>
+        <v>979461</v>
+      </c>
+      <c r="E40" s="0">
+        <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>44058</v>
+        <v>43600</v>
       </c>
       <c r="G40" s="1">
-        <v>44074</v>
-      </c>
-      <c r="H40" s="0">
-        <v>13.970000267028809</v>
+        <v>43920</v>
+      </c>
+      <c r="H40" s="1">
+        <v>43920</v>
       </c>
       <c r="I40" s="0">
-        <v>42949.17578125</v>
-      </c>
-      <c r="J40" s="0"/>
-      <c r="K40" s="0">
-        <v>0.40000000596046448</v>
-      </c>
+        <v>10.520000457763672</v>
+      </c>
+      <c r="J40" s="0">
+        <v>93104.65625</v>
+      </c>
+      <c r="K40" s="0"/>
       <c r="L40" s="0">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="M40" s="0">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N40" s="0">
-        <v>1</v>
+        <v>977598.875</v>
       </c>
       <c r="O40" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P40" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q40" s="0">
         <v>1</v>
       </c>
-      <c r="R40" s="0"/>
+      <c r="R40" s="0">
+        <v>1</v>
+      </c>
       <c r="S40" s="0">
         <v>1</v>
       </c>
       <c r="T40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" s="0">
-        <v>1</v>
+        <v>977598.875</v>
       </c>
       <c r="W40" s="0">
         <v>1</v>
       </c>
       <c r="X40" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="s">
+        <v>977598.875</v>
+      </c>
+      <c r="Y40" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="0">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="AB40" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="0">
+        <v>977598.875</v>
+      </c>
+      <c r="AD40" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG40" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3452,69 +4386,95 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C41" s="0">
-        <v>230898.875</v>
+        <v>280000</v>
       </c>
       <c r="D41" s="0">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="E41" s="1">
-        <v>43405</v>
+        <v>279234.96875</v>
+      </c>
+      <c r="E41" s="0">
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>44064</v>
+        <v>43770</v>
       </c>
       <c r="G41" s="1">
-        <v>44530</v>
-      </c>
-      <c r="H41" s="0">
-        <v>21.670000076293945</v>
+        <v>43890</v>
+      </c>
+      <c r="H41" s="1">
+        <v>43890</v>
       </c>
       <c r="I41" s="0">
-        <v>3914.69580078125</v>
-      </c>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0">
-        <v>7.9000000953674316</v>
-      </c>
-      <c r="L41" s="0">
-        <v>12</v>
-      </c>
+        <v>3.9500000476837158</v>
+      </c>
+      <c r="J41" s="0">
+        <v>70692.3984375</v>
+      </c>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
       <c r="M41" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N41" s="0">
-        <v>4</v>
+        <v>565539.1875</v>
       </c>
       <c r="O41" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="R41" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="0">
+        <v>1</v>
+      </c>
       <c r="S41" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="T41" s="0">
-        <v>0.059999998658895493</v>
-      </c>
-      <c r="U41" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="0">
+        <v>1</v>
+      </c>
       <c r="V41" s="0">
-        <v>0.059999998658895493</v>
+        <v>565539.1875</v>
       </c>
       <c r="W41" s="0">
-        <v>0.059999998658895493</v>
+        <v>1</v>
       </c>
       <c r="X41" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="s">
+        <v>565539.1875</v>
+      </c>
+      <c r="Y41" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="0">
+        <v>565539.1875</v>
+      </c>
+      <c r="AD41" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG41" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3523,74 +4483,96 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="0">
-        <v>655317</v>
+        <v>316322</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>43101</v>
+        <v>189449</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.60000002384185791</v>
       </c>
       <c r="F42" s="1">
-        <v>44068</v>
+        <v>43921</v>
       </c>
       <c r="G42" s="1">
+        <v>44043</v>
+      </c>
+      <c r="H42" s="1">
         <v>44196</v>
       </c>
-      <c r="H42" s="0">
-        <v>31.790000915527344</v>
-      </c>
       <c r="I42" s="0">
-        <v>20613.935546875</v>
+        <v>4.0100002288818359</v>
       </c>
       <c r="J42" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="K42" s="0">
-        <v>12</v>
-      </c>
-      <c r="L42" s="0">
-        <v>12</v>
-      </c>
+        <v>47244.13671875</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
       <c r="M42" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" s="0">
-        <v>4</v>
+        <v>141732.40625</v>
       </c>
       <c r="O42" s="0">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="P42" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q42" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="R42" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="0">
+        <v>1</v>
+      </c>
       <c r="S42" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" s="0">
-        <v>1</v>
+        <v>141732.40625</v>
       </c>
       <c r="W42" s="0">
         <v>1</v>
       </c>
       <c r="X42" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>147</v>
+        <v>141732.40625</v>
+      </c>
+      <c r="Y42" s="0">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="0">
+        <v>141732.40625</v>
+      </c>
+      <c r="AA42" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="0">
+        <v>141732.40625</v>
+      </c>
+      <c r="AD42" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -3598,72 +4580,98 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C43" s="0">
-        <v>1012200</v>
+        <v>674157.3125</v>
       </c>
       <c r="D43" s="0">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>43313</v>
+        <v>674157.3125</v>
+      </c>
+      <c r="E43" s="0">
+        <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>43600</v>
+        <v>43556</v>
       </c>
       <c r="G43" s="1">
-        <v>43600</v>
-      </c>
-      <c r="H43" s="0">
-        <v>9.4399995803833008</v>
+        <v>43982</v>
+      </c>
+      <c r="H43" s="1">
+        <v>43982</v>
       </c>
       <c r="I43" s="0">
-        <v>107224.578125</v>
-      </c>
-      <c r="J43" s="0"/>
-      <c r="K43" s="0">
-        <v>10.5</v>
-      </c>
-      <c r="L43" s="0"/>
+        <v>14.010000228881836</v>
+      </c>
+      <c r="J43" s="0">
+        <v>48119.72265625</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0">
+        <v>3</v>
+      </c>
       <c r="M43" s="0">
+        <v>11</v>
+      </c>
+      <c r="N43" s="0">
+        <v>673676.125</v>
+      </c>
+      <c r="O43" s="0">
         <v>2</v>
       </c>
-      <c r="N43" s="0">
+      <c r="P43" s="0">
         <v>2</v>
       </c>
-      <c r="O43" s="0">
-        <v>1</v>
-      </c>
-      <c r="P43" s="0">
-        <v>1</v>
-      </c>
       <c r="Q43" s="0">
         <v>1</v>
       </c>
       <c r="R43" s="0">
-        <v>0</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="S43" s="0">
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="T43" s="0">
-        <v>1</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U43" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="0">
-        <v>1</v>
+        <v>673676.125</v>
       </c>
       <c r="W43" s="0">
         <v>1</v>
       </c>
       <c r="X43" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>149</v>
+        <v>673676.125</v>
+      </c>
+      <c r="Y43" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="0">
+        <v>33683.80859375</v>
+      </c>
+      <c r="AC43" s="0">
+        <v>639992.3125</v>
+      </c>
+      <c r="AD43" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="0">
+        <v>1.0000001192092896</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44">
@@ -3671,74 +4679,98 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C44" s="0">
-        <v>979461</v>
+        <v>752809</v>
       </c>
       <c r="D44" s="0">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>43600</v>
+        <v>752809</v>
+      </c>
+      <c r="E44" s="0">
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>43920</v>
+        <v>43191</v>
       </c>
       <c r="G44" s="1">
-        <v>43920</v>
-      </c>
-      <c r="H44" s="0">
-        <v>10.520000457763672</v>
+        <v>43555</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43555</v>
       </c>
       <c r="I44" s="0">
-        <v>93104.65625</v>
-      </c>
-      <c r="J44" s="0"/>
+        <v>11.970000267028809</v>
+      </c>
+      <c r="J44" s="0">
+        <v>62891.30859375</v>
+      </c>
       <c r="K44" s="0">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L44" s="0">
         <v>9</v>
       </c>
-      <c r="M44" s="0">
-        <v>3</v>
-      </c>
+      <c r="M44" s="0"/>
       <c r="N44" s="0">
-        <v>3</v>
+        <v>754695.6875</v>
       </c>
       <c r="O44" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="0">
         <v>1</v>
       </c>
       <c r="R44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="0">
         <v>1</v>
       </c>
       <c r="T44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" s="0">
-        <v>0.99999994039535522</v>
+        <v>754695.6875</v>
       </c>
       <c r="W44" s="0">
         <v>1</v>
       </c>
       <c r="X44" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>149</v>
+        <v>754695.6875</v>
+      </c>
+      <c r="Y44" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="0">
+        <v>754695.6875</v>
+      </c>
+      <c r="AD44" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="45">
@@ -3746,72 +4778,92 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C45" s="0">
-        <v>280000</v>
+        <v>786516.875</v>
       </c>
       <c r="D45" s="0">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>43770</v>
+        <v>786516.875</v>
+      </c>
+      <c r="E45" s="0">
+        <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>43890</v>
+        <v>42826</v>
       </c>
       <c r="G45" s="1">
-        <v>43890</v>
-      </c>
-      <c r="H45" s="0">
-        <v>3.9500000476837158</v>
+        <v>43190</v>
+      </c>
+      <c r="H45" s="1">
+        <v>43190</v>
       </c>
       <c r="I45" s="0">
-        <v>70692.3984375</v>
-      </c>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0">
-        <v>8</v>
-      </c>
-      <c r="M45" s="0">
+        <v>11.970000267028809</v>
+      </c>
+      <c r="J45" s="0">
+        <v>65707.3359375</v>
+      </c>
+      <c r="K45" s="0">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0">
+        <v>190551.28125</v>
+      </c>
+      <c r="O45" s="0">
         <v>2</v>
       </c>
-      <c r="N45" s="0">
+      <c r="P45" s="0">
         <v>2</v>
       </c>
-      <c r="O45" s="0">
-        <v>1</v>
-      </c>
-      <c r="P45" s="0">
-        <v>1</v>
-      </c>
       <c r="Q45" s="0">
         <v>1</v>
       </c>
       <c r="R45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="0">
         <v>1</v>
       </c>
-      <c r="T45" s="0">
-        <v>1</v>
-      </c>
+      <c r="T45" s="0"/>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>190551.28125</v>
       </c>
       <c r="W45" s="0">
         <v>1</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>149</v>
+        <v>190551.28125</v>
+      </c>
+      <c r="Y45" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="0">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0">
+        <v>190551.28125</v>
+      </c>
+      <c r="AD45" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46">
@@ -3819,72 +4871,96 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C46" s="0">
-        <v>316322</v>
+        <v>2000000</v>
       </c>
       <c r="D46" s="0">
-        <v>0.60000002384185791</v>
-      </c>
-      <c r="E46" s="1">
-        <v>43921</v>
+        <v>2000000</v>
+      </c>
+      <c r="E46" s="0">
+        <v>1</v>
       </c>
       <c r="F46" s="1">
+        <v>43709</v>
+      </c>
+      <c r="G46" s="1">
         <v>44043</v>
       </c>
-      <c r="G46" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H46" s="0">
-        <v>4.0100002288818359</v>
+      <c r="H46" s="1">
+        <v>44074</v>
       </c>
       <c r="I46" s="0">
-        <v>47244.13671875</v>
-      </c>
-      <c r="J46" s="0"/>
+        <v>10.979999542236328</v>
+      </c>
+      <c r="J46" s="0">
+        <v>182149.375</v>
+      </c>
       <c r="K46" s="0"/>
-      <c r="L46" s="0">
-        <v>3</v>
-      </c>
+      <c r="L46" s="0"/>
       <c r="M46" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N46" s="0">
-        <v>3</v>
+        <v>1821493.75</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P46" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="0">
         <v>1</v>
       </c>
       <c r="R46" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="0">
         <v>1</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
         <v>1</v>
       </c>
       <c r="V46" s="0">
-        <v>1</v>
+        <v>1821493.75</v>
       </c>
       <c r="W46" s="0">
         <v>1</v>
       </c>
       <c r="X46" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>146</v>
+        <v>1821493.75</v>
+      </c>
+      <c r="Y46" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="0">
+        <v>1821493.75</v>
+      </c>
+      <c r="AD46" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47">
@@ -3892,74 +4968,100 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C47" s="0">
-        <v>674157.3125</v>
+        <v>100000000</v>
       </c>
       <c r="D47" s="0">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43556</v>
+        <v>98470080</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.98000001907348633</v>
       </c>
       <c r="F47" s="1">
-        <v>43982</v>
+        <v>42186</v>
       </c>
       <c r="G47" s="1">
-        <v>43982</v>
-      </c>
-      <c r="H47" s="0">
-        <v>14.010000228881836</v>
+        <v>44043</v>
+      </c>
+      <c r="H47" s="1">
+        <v>43921</v>
       </c>
       <c r="I47" s="0">
-        <v>48119.72265625</v>
-      </c>
-      <c r="J47" s="0"/>
+        <v>61.049999237060547</v>
+      </c>
+      <c r="J47" s="0">
+        <v>1612941.5</v>
+      </c>
       <c r="K47" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="L47" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M47" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N47" s="0">
-        <v>2</v>
+        <v>53227072</v>
       </c>
       <c r="O47" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P47" s="0">
-        <v>0.94999998807907104</v>
+        <v>120</v>
       </c>
       <c r="Q47" s="0">
-        <v>0.94999998807907104</v>
+        <v>0.25</v>
       </c>
       <c r="R47" s="0">
-        <v>0.05000000074505806</v>
+        <v>0.8399999737739563</v>
       </c>
       <c r="S47" s="0">
-        <v>1</v>
+        <v>0.022749999538064003</v>
       </c>
       <c r="T47" s="0">
-        <v>1</v>
+        <v>0.15999999642372131</v>
       </c>
       <c r="U47" s="0">
-        <v>0</v>
+        <v>0.18275000154972076</v>
       </c>
       <c r="V47" s="0">
-        <v>1</v>
+        <v>9727247</v>
       </c>
       <c r="W47" s="0">
         <v>1</v>
       </c>
       <c r="X47" s="0">
-        <v>1.0000001192092896</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>149</v>
+        <v>9727247</v>
+      </c>
+      <c r="Y47" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="0">
+        <v>8516331</v>
+      </c>
+      <c r="AC47" s="0">
+        <v>1210915.75</v>
+      </c>
+      <c r="AD47" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="48">
@@ -3967,41 +5069,39 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C48" s="0">
-        <v>752809</v>
+        <v>1643201</v>
       </c>
       <c r="D48" s="0">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1">
-        <v>43191</v>
+        <v>1638693</v>
+      </c>
+      <c r="E48" s="0">
+        <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>43555</v>
+        <v>42887</v>
       </c>
       <c r="G48" s="1">
-        <v>43555</v>
-      </c>
-      <c r="H48" s="0">
-        <v>11.970000267028809</v>
+        <v>43312</v>
+      </c>
+      <c r="H48" s="1">
+        <v>43251</v>
       </c>
       <c r="I48" s="0">
-        <v>62891.30859375</v>
+        <v>13.970000267028809</v>
       </c>
       <c r="J48" s="0">
-        <v>3</v>
+        <v>117300.859375</v>
       </c>
       <c r="K48" s="0">
-        <v>9</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="L48" s="0"/>
-      <c r="M48" s="0">
-        <v>2</v>
-      </c>
+      <c r="M48" s="0"/>
       <c r="N48" s="0">
-        <v>2</v>
+        <v>574774.25</v>
       </c>
       <c r="O48" s="0">
         <v>1</v>
@@ -4013,28 +5113,52 @@
         <v>1</v>
       </c>
       <c r="R48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="0">
         <v>1</v>
       </c>
       <c r="T48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="0">
-        <v>1</v>
+        <v>574774.25</v>
       </c>
       <c r="W48" s="0">
         <v>1</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>149</v>
+        <v>574774.25</v>
+      </c>
+      <c r="Y48" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="0">
+        <v>574774.25</v>
+      </c>
+      <c r="AD48" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="49">
@@ -4042,70 +5166,96 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="0">
-        <v>786516.875</v>
+        <v>2916754</v>
       </c>
       <c r="D49" s="0">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>42826</v>
+        <v>1500000</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.50999999046325684</v>
       </c>
       <c r="F49" s="1">
-        <v>43190</v>
+        <v>43831</v>
       </c>
       <c r="G49" s="1">
-        <v>43190</v>
-      </c>
-      <c r="H49" s="0">
-        <v>11.970000267028809</v>
+        <v>44012</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44196</v>
       </c>
       <c r="I49" s="0">
-        <v>65707.3359375</v>
+        <v>5.9499998092651367</v>
       </c>
       <c r="J49" s="0">
-        <v>2.9000000953674316</v>
+        <v>252100.84375</v>
       </c>
       <c r="K49" s="0"/>
       <c r="L49" s="0"/>
       <c r="M49" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N49" s="0">
-        <v>2</v>
+        <v>1512605</v>
       </c>
       <c r="O49" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P49" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q49" s="0">
         <v>1</v>
       </c>
-      <c r="R49" s="0"/>
+      <c r="R49" s="0">
+        <v>0.94999998807907104</v>
+      </c>
       <c r="S49" s="0">
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="T49" s="0">
-        <v>1</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="U49" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="0">
-        <v>0.99999994039535522</v>
+        <v>1512605</v>
       </c>
       <c r="W49" s="0">
         <v>1</v>
       </c>
       <c r="X49" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>149</v>
+        <v>1512605</v>
+      </c>
+      <c r="Y49" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="0">
+        <v>75630.25</v>
+      </c>
+      <c r="AC49" s="0">
+        <v>1436974.75</v>
+      </c>
+      <c r="AD49" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="50">
@@ -4113,72 +5263,94 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C50" s="0">
-        <v>2000000</v>
+        <v>4142113</v>
       </c>
       <c r="D50" s="0">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>43709</v>
+        <v>4142113</v>
+      </c>
+      <c r="E50" s="0">
+        <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>44043</v>
+        <v>43466</v>
       </c>
       <c r="G50" s="1">
-        <v>44074</v>
-      </c>
-      <c r="H50" s="0">
-        <v>10.979999542236328</v>
+        <v>43830</v>
+      </c>
+      <c r="H50" s="1">
+        <v>43830</v>
       </c>
       <c r="I50" s="0">
-        <v>182149.375</v>
-      </c>
-      <c r="J50" s="0"/>
+        <v>11.970000267028809</v>
+      </c>
+      <c r="J50" s="0">
+        <v>346041.1875</v>
+      </c>
       <c r="K50" s="0"/>
       <c r="L50" s="0">
-        <v>10</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="M50" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N50" s="0">
-        <v>2</v>
+        <v>4117890</v>
       </c>
       <c r="O50" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P50" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q50" s="0">
         <v>1</v>
       </c>
       <c r="R50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="0">
         <v>1</v>
       </c>
-      <c r="T50" s="0">
-        <v>1</v>
-      </c>
+      <c r="T50" s="0"/>
       <c r="U50" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="0">
-        <v>1</v>
+        <v>4117890</v>
       </c>
       <c r="W50" s="0">
         <v>1</v>
       </c>
       <c r="X50" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>149</v>
+        <v>4117890</v>
+      </c>
+      <c r="Y50" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="0"/>
+      <c r="AC50" s="0">
+        <v>4117890</v>
+      </c>
+      <c r="AD50" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="0">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51">
@@ -4186,76 +5358,94 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C51" s="0">
-        <v>100000000</v>
+        <v>1908440</v>
       </c>
       <c r="D51" s="0">
-        <v>0.98000001907348633</v>
-      </c>
-      <c r="E51" s="1">
-        <v>42186</v>
+        <v>1908440</v>
+      </c>
+      <c r="E51" s="0">
+        <v>1</v>
       </c>
       <c r="F51" s="1">
-        <v>44043</v>
+        <v>43101</v>
       </c>
       <c r="G51" s="1">
-        <v>43921</v>
-      </c>
-      <c r="H51" s="0">
-        <v>61.049999237060547</v>
+        <v>43465</v>
+      </c>
+      <c r="H51" s="1">
+        <v>43465</v>
       </c>
       <c r="I51" s="0">
-        <v>1612941.5</v>
+        <v>11.970000267028809</v>
       </c>
       <c r="J51" s="0">
-        <v>12</v>
+        <v>159435.25</v>
       </c>
       <c r="K51" s="0">
-        <v>12</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="L51" s="0">
-        <v>9</v>
-      </c>
-      <c r="M51" s="0">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="M51" s="0"/>
       <c r="N51" s="0">
-        <v>120</v>
+        <v>1897279.5</v>
       </c>
       <c r="O51" s="0">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="P51" s="0">
-        <v>0.8399999737739563</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.022749999538064003</v>
+        <v>1</v>
       </c>
       <c r="R51" s="0">
-        <v>0.15999999642372131</v>
+        <v>1</v>
       </c>
       <c r="S51" s="0">
-        <v>0.18275000154972076</v>
-      </c>
-      <c r="T51" s="0">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T51" s="0"/>
       <c r="U51" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="0">
-        <v>1</v>
+        <v>1897279.5</v>
       </c>
       <c r="W51" s="0">
-        <v>1</v>
+        <v>0.99000000953674316</v>
       </c>
       <c r="X51" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>147</v>
+        <v>1878306.75</v>
+      </c>
+      <c r="Y51" s="0">
+        <v>0.0099999997764825821</v>
+      </c>
+      <c r="Z51" s="0">
+        <v>18972.794921875</v>
+      </c>
+      <c r="AA51" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="0"/>
+      <c r="AC51" s="0">
+        <v>1878306.75</v>
+      </c>
+      <c r="AD51" s="0">
+        <v>0.98999994993209839</v>
+      </c>
+      <c r="AE51" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52">
@@ -4263,45 +5453,45 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C52" s="0">
-        <v>1643201</v>
+        <v>511990</v>
       </c>
       <c r="D52" s="0">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1">
-        <v>42887</v>
+        <v>113348</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0.2199999988079071</v>
       </c>
       <c r="F52" s="1">
-        <v>43312</v>
+        <v>43862</v>
       </c>
       <c r="G52" s="1">
-        <v>43251</v>
-      </c>
-      <c r="H52" s="0">
-        <v>13.970000267028809</v>
+        <v>44043</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45900</v>
       </c>
       <c r="I52" s="0">
-        <v>117300.859375</v>
+        <v>5.9499998092651367</v>
       </c>
       <c r="J52" s="0">
-        <v>4.9000000953674316</v>
+        <v>19050.083984375</v>
       </c>
       <c r="K52" s="0"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0">
-        <v>1</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="N52" s="0">
-        <v>1</v>
+        <v>93345.4140625</v>
       </c>
       <c r="O52" s="0">
         <v>1</v>
       </c>
       <c r="P52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="0">
         <v>1</v>
@@ -4310,25 +5500,49 @@
         <v>0</v>
       </c>
       <c r="S52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" s="0">
         <v>1</v>
       </c>
       <c r="U52" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="0">
-        <v>1</v>
+        <v>93345.4140625</v>
       </c>
       <c r="W52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="0">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="0">
+        <v>93345.4140625</v>
+      </c>
+      <c r="AA52" s="0">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="0">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="53">
@@ -4336,72 +5550,98 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C53" s="0">
-        <v>2916754</v>
+        <v>424526.96875</v>
       </c>
       <c r="D53" s="0">
-        <v>0.50999999046325684</v>
-      </c>
-      <c r="E53" s="1">
-        <v>43831</v>
+        <v>392018.3125</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.92000001668930054</v>
       </c>
       <c r="F53" s="1">
-        <v>44012</v>
+        <v>42856</v>
       </c>
       <c r="G53" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H53" s="0">
-        <v>5.9499998092651367</v>
+        <v>43466</v>
+      </c>
+      <c r="H53" s="1">
+        <v>43404</v>
       </c>
       <c r="I53" s="0">
-        <v>252100.84375</v>
-      </c>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
+        <v>20.049999237060547</v>
+      </c>
+      <c r="J53" s="0">
+        <v>19552.037109375</v>
+      </c>
+      <c r="K53" s="0">
+        <v>12</v>
+      </c>
       <c r="L53" s="0">
-        <v>6</v>
-      </c>
-      <c r="M53" s="0">
         <v>4</v>
       </c>
+      <c r="M53" s="0"/>
       <c r="N53" s="0">
-        <v>4</v>
+        <v>312832.59375</v>
       </c>
       <c r="O53" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P53" s="0">
-        <v>0.94999998807907104</v>
+        <v>3</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="R53" s="0">
-        <v>0.05000000074505806</v>
+        <v>1</v>
       </c>
       <c r="S53" s="0">
         <v>1</v>
       </c>
       <c r="T53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="0">
-        <v>1</v>
+        <v>312832.59375</v>
       </c>
       <c r="W53" s="0">
-        <v>1</v>
+        <v>0.93000000715255737</v>
       </c>
       <c r="X53" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y53" t="s">
+        <v>290934.3125</v>
+      </c>
+      <c r="Y53" s="0">
+        <v>0.019999999552965164</v>
+      </c>
+      <c r="Z53" s="0">
+        <v>6256.65185546875</v>
+      </c>
+      <c r="AA53" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="0">
+        <v>290934.3125</v>
+      </c>
+      <c r="AD53" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="0">
+        <v>0.98000001907348633</v>
+      </c>
+      <c r="AF53" t="s">
         <v>147</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -4409,72 +5649,100 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C54" s="0">
-        <v>4142113</v>
+        <v>70510488</v>
       </c>
       <c r="D54" s="0">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1">
-        <v>43466</v>
+        <v>70128240</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0.99000000953674316</v>
       </c>
       <c r="F54" s="1">
-        <v>43830</v>
+        <v>41050</v>
       </c>
       <c r="G54" s="1">
-        <v>43830</v>
-      </c>
-      <c r="H54" s="0">
-        <v>11.970000267028809</v>
+        <v>43697</v>
+      </c>
+      <c r="H54" s="1">
+        <v>43697</v>
       </c>
       <c r="I54" s="0">
-        <v>346041.1875</v>
-      </c>
-      <c r="J54" s="0"/>
+        <v>87.019996643066406</v>
+      </c>
+      <c r="J54" s="0">
+        <v>805886.5</v>
+      </c>
       <c r="K54" s="0">
-        <v>5.9000000953674316</v>
+        <v>12</v>
       </c>
       <c r="L54" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M54" s="0">
-        <v>4</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="N54" s="0">
-        <v>4</v>
+        <v>20630694</v>
       </c>
       <c r="O54" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" s="0">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="Q54" s="0">
-        <v>1</v>
-      </c>
-      <c r="R54" s="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="R54" s="0">
+        <v>0.85000002384185791</v>
+      </c>
       <c r="S54" s="0">
-        <v>1</v>
+        <v>0.0098837213590741158</v>
       </c>
       <c r="T54" s="0">
-        <v>1</v>
+        <v>0.15000000596046448</v>
       </c>
       <c r="U54" s="0">
-        <v>0</v>
+        <v>0.15988372266292572</v>
       </c>
       <c r="V54" s="0">
-        <v>1</v>
+        <v>3298512.25</v>
       </c>
       <c r="W54" s="0">
-        <v>1</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="X54" s="0">
-        <v>0.99999988079071045</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>147</v>
+        <v>164925.609375</v>
+      </c>
+      <c r="Y54" s="0">
+        <v>0.94999998807907104</v>
+      </c>
+      <c r="Z54" s="0">
+        <v>3133586.5</v>
+      </c>
+      <c r="AA54" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="0">
+        <v>154730.21875</v>
+      </c>
+      <c r="AC54" s="0">
+        <v>10195.4013671875</v>
+      </c>
+      <c r="AD54" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="0">
+        <v>1.0000001192092896</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="55">
@@ -4482,72 +5750,92 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C55" s="0">
-        <v>1908440</v>
+        <v>48775784</v>
       </c>
       <c r="D55" s="0">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1">
-        <v>43101</v>
+        <v>11460961</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.23000000417232513</v>
       </c>
       <c r="F55" s="1">
-        <v>43465</v>
+        <v>43647</v>
       </c>
       <c r="G55" s="1">
-        <v>43465</v>
-      </c>
-      <c r="H55" s="0">
-        <v>11.970000267028809</v>
+        <v>44012</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45107</v>
       </c>
       <c r="I55" s="0">
-        <v>159435.25</v>
+        <v>12</v>
       </c>
       <c r="J55" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="K55" s="0">
-        <v>6</v>
-      </c>
+        <v>955080.0625</v>
+      </c>
+      <c r="K55" s="0"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N55" s="0">
-        <v>4</v>
+        <v>11460961</v>
       </c>
       <c r="O55" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q55" s="0">
         <v>1</v>
       </c>
-      <c r="R55" s="0"/>
+      <c r="R55" s="0">
+        <v>0.93999999761581421</v>
+      </c>
       <c r="S55" s="0">
-        <v>1</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="T55" s="0">
-        <v>0.99000000953674316</v>
+        <v>0.059999998658895493</v>
       </c>
       <c r="U55" s="0">
-        <v>0.0099999997764825821</v>
+        <v>1</v>
       </c>
       <c r="V55" s="0">
-        <v>1</v>
+        <v>11460961</v>
       </c>
       <c r="W55" s="0">
-        <v>0.98999994993209839</v>
+        <v>0.31000000238418579</v>
       </c>
       <c r="X55" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y55" t="s">
+        <v>3552898</v>
+      </c>
+      <c r="Y55" s="0"/>
+      <c r="Z55" s="0"/>
+      <c r="AA55" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="0">
+        <v>213173.875</v>
+      </c>
+      <c r="AC55" s="0">
+        <v>3339724</v>
+      </c>
+      <c r="AD55" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="s">
         <v>147</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="56">
@@ -4555,71 +5843,95 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C56" s="0">
-        <v>511990</v>
+        <v>1500000</v>
       </c>
       <c r="D56" s="0">
-        <v>0.2199999988079071</v>
-      </c>
-      <c r="E56" s="1">
-        <v>43862</v>
+        <v>69532.234375</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.05000000074505806</v>
       </c>
       <c r="F56" s="1">
-        <v>44043</v>
+        <v>43831</v>
       </c>
       <c r="G56" s="1">
-        <v>45900</v>
-      </c>
-      <c r="H56" s="0">
-        <v>5.9499998092651367</v>
+        <v>44073</v>
+      </c>
+      <c r="H56" s="1">
+        <v>44439</v>
       </c>
       <c r="I56" s="0">
-        <v>19050.083984375</v>
-      </c>
-      <c r="J56" s="0"/>
+        <v>7.9600000381469727</v>
+      </c>
+      <c r="J56" s="0">
+        <v>8735.205078125</v>
+      </c>
       <c r="K56" s="0"/>
-      <c r="L56" s="0">
-        <v>4.9000000953674316</v>
-      </c>
+      <c r="L56" s="0"/>
       <c r="M56" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>52411.23046875</v>
       </c>
       <c r="O56" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P56" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="0">
-        <v>1</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="S56" s="0">
-        <v>1</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="T56" s="0">
-        <v>0</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="U56" s="0">
         <v>1</v>
       </c>
       <c r="V56" s="0">
-        <v>0</v>
+        <v>52411.23046875</v>
       </c>
       <c r="W56" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X56" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="s">
+        <v>52411.23046875</v>
+      </c>
+      <c r="Y56" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="0">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="AB56" s="0">
+        <v>5241.123046875</v>
+      </c>
+      <c r="AC56" s="0">
+        <v>47170.10546875</v>
+      </c>
+      <c r="AD56" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG56" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4628,73 +5940,97 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C57" s="0">
-        <v>424526.96875</v>
+        <v>500000000</v>
       </c>
       <c r="D57" s="0">
-        <v>0.92000001668930054</v>
-      </c>
-      <c r="E57" s="1">
-        <v>42856</v>
+        <v>106000000</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.20999999344348907</v>
       </c>
       <c r="F57" s="1">
-        <v>43466</v>
+        <v>43614</v>
       </c>
       <c r="G57" s="1">
-        <v>43404</v>
-      </c>
-      <c r="H57" s="0">
-        <v>20.049999237060547</v>
+        <v>44044</v>
+      </c>
+      <c r="H57" s="1">
+        <v>45504</v>
       </c>
       <c r="I57" s="0">
-        <v>19552.037109375</v>
+        <v>14.140000343322754</v>
       </c>
       <c r="J57" s="0">
+        <v>7496464</v>
+      </c>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="M57" s="0">
         <v>12</v>
       </c>
-      <c r="K57" s="0">
-        <v>4</v>
-      </c>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0">
-        <v>3</v>
-      </c>
       <c r="N57" s="0">
-        <v>3</v>
+        <v>98203680</v>
       </c>
       <c r="O57" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P57" s="0">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="Q57" s="0">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R57" s="0">
-        <v>0</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="S57" s="0">
-        <v>1</v>
+        <v>0.012926136143505573</v>
       </c>
       <c r="T57" s="0">
-        <v>0.93000000715255737</v>
+        <v>0.30000001192092896</v>
       </c>
       <c r="U57" s="0">
-        <v>0.019999999552965164</v>
+        <v>0.31292614340782166</v>
       </c>
       <c r="V57" s="0">
-        <v>1</v>
+        <v>30730498</v>
       </c>
       <c r="W57" s="0">
-        <v>1</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="X57" s="0">
-        <v>0.98000001907348633</v>
-      </c>
-      <c r="Y57" t="s">
+        <v>13521419</v>
+      </c>
+      <c r="Y57" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="0">
+        <v>12962886</v>
+      </c>
+      <c r="AC57" s="0">
+        <v>558533.375</v>
+      </c>
+      <c r="AD57" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG57" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4703,76 +6039,100 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C58" s="0">
-        <v>70510488</v>
+        <v>2247191</v>
       </c>
       <c r="D58" s="0">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="E58" s="1">
-        <v>41050</v>
+        <v>2247191</v>
+      </c>
+      <c r="E58" s="0">
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>43697</v>
+        <v>43070</v>
       </c>
       <c r="G58" s="1">
-        <v>43697</v>
-      </c>
-      <c r="H58" s="0">
-        <v>87.019996643066406</v>
+        <v>43830</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44196</v>
       </c>
       <c r="I58" s="0">
-        <v>805886.5</v>
+        <v>24.989999771118164</v>
       </c>
       <c r="J58" s="0">
+        <v>89923.609375</v>
+      </c>
+      <c r="K58" s="0">
+        <v>6.9000000953674316</v>
+      </c>
+      <c r="L58" s="0">
         <v>12</v>
       </c>
-      <c r="K58" s="0">
+      <c r="M58" s="0">
         <v>12</v>
       </c>
-      <c r="L58" s="0">
-        <v>1.6000000238418579</v>
-      </c>
-      <c r="M58" s="0">
-        <v>2</v>
-      </c>
       <c r="N58" s="0">
-        <v>43</v>
+        <v>2778639.5</v>
       </c>
       <c r="O58" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P58" s="0">
-        <v>0.85000002384185791</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="0">
-        <v>0.0098837213590741158</v>
+        <v>1</v>
       </c>
       <c r="R58" s="0">
-        <v>0.15000000596046448</v>
+        <v>1</v>
       </c>
       <c r="S58" s="0">
-        <v>0.15988372266292572</v>
+        <v>1</v>
       </c>
       <c r="T58" s="0">
-        <v>0.05000000074505806</v>
+        <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>0.94999998807907104</v>
+        <v>1</v>
       </c>
       <c r="V58" s="0">
-        <v>1</v>
+        <v>2778639.5</v>
       </c>
       <c r="W58" s="0">
-        <v>1</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="X58" s="0">
-        <v>1.0000001192092896</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>146</v>
+        <v>2500775.5</v>
+      </c>
+      <c r="Y58" s="0">
+        <v>0.10000000149011612</v>
+      </c>
+      <c r="Z58" s="0">
+        <v>277863.96875</v>
+      </c>
+      <c r="AA58" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="0">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="0">
+        <v>2500775.5</v>
+      </c>
+      <c r="AD58" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="59">
@@ -4780,69 +6140,99 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C59" s="0">
-        <v>48775784</v>
+        <v>2094543.875</v>
       </c>
       <c r="D59" s="0">
-        <v>0.23000000417232513</v>
-      </c>
-      <c r="E59" s="1">
-        <v>43647</v>
+        <v>751325.8125</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.36000001430511475</v>
       </c>
       <c r="F59" s="1">
-        <v>44012</v>
+        <v>43160</v>
       </c>
       <c r="G59" s="1">
-        <v>45107</v>
-      </c>
-      <c r="H59" s="0">
-        <v>12</v>
+        <v>43982</v>
+      </c>
+      <c r="H59" s="1">
+        <v>44620</v>
       </c>
       <c r="I59" s="0">
-        <v>955080.0625</v>
-      </c>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
+        <v>27.020000457763672</v>
+      </c>
+      <c r="J59" s="0">
+        <v>27806.28515625</v>
+      </c>
+      <c r="K59" s="0">
+        <v>4</v>
+      </c>
       <c r="L59" s="0">
         <v>12</v>
       </c>
       <c r="M59" s="0">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N59" s="0">
-        <v>2</v>
+        <v>778576</v>
       </c>
       <c r="O59" s="0">
         <v>1</v>
       </c>
       <c r="P59" s="0">
-        <v>0.93999999761581421</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.93999999761581421</v>
+        <v>1</v>
       </c>
       <c r="R59" s="0">
-        <v>0.059999998658895493</v>
+        <v>0.75</v>
       </c>
       <c r="S59" s="0">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="T59" s="0">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="U59" s="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="U59" s="0">
+        <v>1</v>
+      </c>
       <c r="V59" s="0">
-        <v>1</v>
+        <v>778576</v>
       </c>
       <c r="W59" s="0">
-        <v>1</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="X59" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y59" t="s">
+        <v>661789.625</v>
+      </c>
+      <c r="Y59" s="0">
+        <v>0.15000000596046448</v>
+      </c>
+      <c r="Z59" s="0">
+        <v>116786.40625</v>
+      </c>
+      <c r="AA59" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="0">
+        <v>165447.40625</v>
+      </c>
+      <c r="AC59" s="0">
+        <v>496342.21875</v>
+      </c>
+      <c r="AD59" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="0">
+        <v>1.0000001192092896</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG59" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4851,72 +6241,98 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="0">
-        <v>1500000</v>
+        <v>15602355</v>
       </c>
       <c r="D60" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="E60" s="1">
-        <v>43831</v>
+        <v>15602355</v>
+      </c>
+      <c r="E60" s="0">
+        <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>44073</v>
+        <v>43101</v>
       </c>
       <c r="G60" s="1">
-        <v>44439</v>
-      </c>
-      <c r="H60" s="0">
-        <v>7.9600000381469727</v>
+        <v>43465</v>
+      </c>
+      <c r="H60" s="1">
+        <v>43465</v>
       </c>
       <c r="I60" s="0">
-        <v>8735.205078125</v>
-      </c>
-      <c r="J60" s="0"/>
-      <c r="K60" s="0"/>
+        <v>11.970000267028809</v>
+      </c>
+      <c r="J60" s="0">
+        <v>1303454.875</v>
+      </c>
+      <c r="K60" s="0">
+        <v>5.9000000953674316</v>
+      </c>
       <c r="L60" s="0">
         <v>6</v>
       </c>
-      <c r="M60" s="0">
-        <v>3</v>
-      </c>
+      <c r="M60" s="0"/>
       <c r="N60" s="0">
-        <v>3</v>
+        <v>15511113</v>
       </c>
       <c r="O60" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P60" s="0">
-        <v>0.89999997615814209</v>
+        <v>12</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.89999997615814209</v>
+        <v>0.75</v>
       </c>
       <c r="R60" s="0">
-        <v>0.10000000149011612</v>
+        <v>0.98000001907348633</v>
       </c>
       <c r="S60" s="0">
-        <v>1</v>
+        <v>0.79624998569488525</v>
       </c>
       <c r="T60" s="0">
-        <v>1</v>
+        <v>0.019999999552965164</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>0.81624996662139893</v>
       </c>
       <c r="V60" s="0">
-        <v>0.80000001192092896</v>
+        <v>12660945</v>
       </c>
       <c r="W60" s="0">
-        <v>1</v>
+        <v>0.94999998807907104</v>
       </c>
       <c r="X60" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>151</v>
+        <v>12027898</v>
+      </c>
+      <c r="Y60" s="0">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="Z60" s="0">
+        <v>633047.25</v>
+      </c>
+      <c r="AA60" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="0">
+        <v>294711.125</v>
+      </c>
+      <c r="AC60" s="0">
+        <v>11733187</v>
+      </c>
+      <c r="AD60" s="0">
+        <v>0.99000000953674316</v>
+      </c>
+      <c r="AE60" s="0">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="61">
@@ -4924,374 +6340,94 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C61" s="0">
-        <v>500000000</v>
+        <v>598944.5625</v>
       </c>
       <c r="D61" s="0">
-        <v>0.20999999344348907</v>
-      </c>
-      <c r="E61" s="1">
-        <v>43614</v>
+        <v>96965.6953125</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.15999999642372131</v>
       </c>
       <c r="F61" s="1">
-        <v>44044</v>
+        <v>43831</v>
       </c>
       <c r="G61" s="1">
-        <v>45504</v>
-      </c>
-      <c r="H61" s="0">
-        <v>14.140000343322754</v>
+        <v>44012</v>
+      </c>
+      <c r="H61" s="1">
+        <v>45107</v>
       </c>
       <c r="I61" s="0">
-        <v>7496464</v>
-      </c>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="L61" s="0">
-        <v>12</v>
-      </c>
+        <v>5.9499998092651367</v>
+      </c>
+      <c r="J61" s="0">
+        <v>16296.755859375</v>
+      </c>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
       <c r="M61" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N61" s="0">
-        <v>176</v>
+        <v>97780.53125</v>
       </c>
       <c r="O61" s="0">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="P61" s="0">
-        <v>0.69999998807907104</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.012926136143505573</v>
-      </c>
-      <c r="R61" s="0">
-        <v>0.30000001192092896</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R61" s="0"/>
       <c r="S61" s="0">
-        <v>0.31292614340782166</v>
+        <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>0.43999999761581421</v>
+        <v>1</v>
       </c>
       <c r="U61" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>97780.53125</v>
       </c>
       <c r="W61" s="0">
         <v>1</v>
       </c>
       <c r="X61" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y61" t="s">
+        <v>97780.53125</v>
+      </c>
+      <c r="Y61" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="0">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="0">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="0">
+        <v>97780.53125</v>
+      </c>
+      <c r="AC61" s="0">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="0">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="0">
+        <v>1</v>
+      </c>
+      <c r="AF61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="0">
-        <v>2247191</v>
-      </c>
-      <c r="D62" s="0">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1">
-        <v>43070</v>
-      </c>
-      <c r="F62" s="1">
-        <v>43830</v>
-      </c>
-      <c r="G62" s="1">
-        <v>44196</v>
-      </c>
-      <c r="H62" s="0">
-        <v>24.989999771118164</v>
-      </c>
-      <c r="I62" s="0">
-        <v>89923.609375</v>
-      </c>
-      <c r="J62" s="0">
-        <v>6.9000000953674316</v>
-      </c>
-      <c r="K62" s="0">
-        <v>12</v>
-      </c>
-      <c r="L62" s="0">
-        <v>12</v>
-      </c>
-      <c r="M62" s="0">
-        <v>1</v>
-      </c>
-      <c r="N62" s="0">
-        <v>1</v>
-      </c>
-      <c r="O62" s="0">
-        <v>1</v>
-      </c>
-      <c r="P62" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="0">
-        <v>1</v>
-      </c>
-      <c r="R62" s="0">
-        <v>0</v>
-      </c>
-      <c r="S62" s="0">
-        <v>1</v>
-      </c>
-      <c r="T62" s="0">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="U62" s="0">
-        <v>0.10000000149011612</v>
-      </c>
-      <c r="V62" s="0">
-        <v>1</v>
-      </c>
-      <c r="W62" s="0">
-        <v>1</v>
-      </c>
-      <c r="X62" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C63" s="0">
-        <v>2094543.875</v>
-      </c>
-      <c r="D63" s="0">
-        <v>0.36000001430511475</v>
-      </c>
-      <c r="E63" s="1">
-        <v>43160</v>
-      </c>
-      <c r="F63" s="1">
-        <v>43982</v>
-      </c>
-      <c r="G63" s="1">
-        <v>44620</v>
-      </c>
-      <c r="H63" s="0">
-        <v>27.020000457763672</v>
-      </c>
-      <c r="I63" s="0">
-        <v>27806.28515625</v>
-      </c>
-      <c r="J63" s="0">
-        <v>4</v>
-      </c>
-      <c r="K63" s="0">
-        <v>12</v>
-      </c>
-      <c r="L63" s="0">
-        <v>12</v>
-      </c>
-      <c r="M63" s="0">
-        <v>1</v>
-      </c>
-      <c r="N63" s="0">
-        <v>1</v>
-      </c>
-      <c r="O63" s="0">
-        <v>1</v>
-      </c>
-      <c r="P63" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="Q63" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="R63" s="0">
-        <v>0.25</v>
-      </c>
-      <c r="S63" s="0">
-        <v>1</v>
-      </c>
-      <c r="T63" s="0">
-        <v>0.85000002384185791</v>
-      </c>
-      <c r="U63" s="0">
-        <v>0.15000000596046448</v>
-      </c>
-      <c r="V63" s="0">
-        <v>1</v>
-      </c>
-      <c r="W63" s="0">
-        <v>1</v>
-      </c>
-      <c r="X63" s="0">
-        <v>1.0000001192092896</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="0">
-        <v>15602355</v>
-      </c>
-      <c r="D64" s="0">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1">
-        <v>43101</v>
-      </c>
-      <c r="F64" s="1">
-        <v>43465</v>
-      </c>
-      <c r="G64" s="1">
-        <v>43465</v>
-      </c>
-      <c r="H64" s="0">
-        <v>11.970000267028809</v>
-      </c>
-      <c r="I64" s="0">
-        <v>1303454.875</v>
-      </c>
-      <c r="J64" s="0">
-        <v>5.9000000953674316</v>
-      </c>
-      <c r="K64" s="0">
-        <v>6</v>
-      </c>
-      <c r="L64" s="0"/>
-      <c r="M64" s="0">
-        <v>13</v>
-      </c>
-      <c r="N64" s="0">
-        <v>12</v>
-      </c>
-      <c r="O64" s="0">
-        <v>0.75</v>
-      </c>
-      <c r="P64" s="0">
-        <v>0.98000001907348633</v>
-      </c>
-      <c r="Q64" s="0">
-        <v>0.79624998569488525</v>
-      </c>
-      <c r="R64" s="0">
-        <v>0.019999999552965164</v>
-      </c>
-      <c r="S64" s="0">
-        <v>0.81624996662139893</v>
-      </c>
-      <c r="T64" s="0">
-        <v>0.94999998807907104</v>
-      </c>
-      <c r="U64" s="0">
-        <v>0.05000000074505806</v>
-      </c>
-      <c r="V64" s="0">
-        <v>1</v>
-      </c>
-      <c r="W64" s="0">
-        <v>0.99000000953674316</v>
-      </c>
-      <c r="X64" s="0">
-        <v>0.99999994039535522</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>122</v>
-      </c>
-      <c r="C65" s="0">
-        <v>598944.5625</v>
-      </c>
-      <c r="D65" s="0">
-        <v>0.15999999642372131</v>
-      </c>
-      <c r="E65" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F65" s="1">
-        <v>44012</v>
-      </c>
-      <c r="G65" s="1">
-        <v>45107</v>
-      </c>
-      <c r="H65" s="0">
-        <v>5.9499998092651367</v>
-      </c>
-      <c r="I65" s="0">
-        <v>16296.755859375</v>
-      </c>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-      <c r="L65" s="0">
-        <v>6</v>
-      </c>
-      <c r="M65" s="0">
-        <v>1</v>
-      </c>
-      <c r="N65" s="0">
-        <v>0</v>
-      </c>
-      <c r="O65" s="0">
-        <v>1</v>
-      </c>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0">
-        <v>0</v>
-      </c>
-      <c r="R65" s="0">
-        <v>1</v>
-      </c>
-      <c r="S65" s="0">
-        <v>1</v>
-      </c>
-      <c r="T65" s="0">
-        <v>1</v>
-      </c>
-      <c r="U65" s="0">
-        <v>0</v>
-      </c>
-      <c r="V65" s="0">
-        <v>1</v>
-      </c>
-      <c r="W65" s="0">
-        <v>1</v>
-      </c>
-      <c r="X65" s="0">
-        <v>1</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>149</v>
+      <c r="AG61" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
